--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33C8354-79E5-4676-AEA8-50C98A14FAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B6F35-382D-4D1A-98A9-4F647499D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="255" windowWidth="15855" windowHeight="14850" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
+    <workbookView xWindow="3720" yWindow="1185" windowWidth="15855" windowHeight="14850" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>map1.gif</t>
   </si>
@@ -217,13 +219,48 @@
   </si>
   <si>
     <t>charact1</t>
+  </si>
+  <si>
+    <t>自分を中心とした９ｘ９</t>
+  </si>
+  <si>
+    <t>teki1</t>
+  </si>
+  <si>
+    <t>敵</t>
+  </si>
+  <si>
+    <t>teki2</t>
+  </si>
+  <si>
+    <t>ブロック</t>
+  </si>
+  <si>
+    <t>Ken2flag == false</t>
+  </si>
+  <si>
+    <t>Goal == false</t>
+  </si>
+  <si>
+    <t>剣2（敵を攻撃できる剣）をまだ取っていなければ、剣2を表示する</t>
+  </si>
+  <si>
+    <t>Ken1flag == false
+なおかつ
+Ken2flag == false</t>
+  </si>
+  <si>
+    <t>剣1（ブロックを壊せる剣）と剣2（敵を攻撃できる剣）を両方とも取っていなければ剣1を表示する。</t>
+  </si>
+  <si>
+    <t>敵を剣2で倒したらゴールを表示する</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +284,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,21 +320,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2F518D2C-D5EB-4E36-AABB-8234DEB54A04}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,6 +359,99 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB367FAC-0D42-48DE-B523-47DD4F51AF65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="857250" y="152400"/>
+          <a:ext cx="4581525" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1612,6 +1768,1331 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6263042D-0799-4866-B838-1A1EFC4E07F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="466725"/>
+          <a:ext cx="447675" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85749FBF-997E-4652-8902-EE4B84D44327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="1400175"/>
+          <a:ext cx="447675" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C564EA8-F5AA-4C85-B692-36FDC6ECEA20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="2266950"/>
+          <a:ext cx="457200" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61715FE2-6CA0-4655-A198-8DBD309F462E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="3200400"/>
+          <a:ext cx="447675" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2886664D-63D7-40FB-A972-AC76A5E1E666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="5162550"/>
+          <a:ext cx="447675" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722B1094-722C-413F-80AF-F2F174E611AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="4048125"/>
+          <a:ext cx="447675" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC04F599-2F4E-42A3-BA4F-5B7F3CB53EAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="4048125"/>
+          <a:ext cx="447675" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145AC820-C9DE-49B4-940B-EA2EC803DF39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="3267075"/>
+          <a:ext cx="447675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889FEF15-AC92-4074-BFAC-62F9C1BE6072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="2800350"/>
+          <a:ext cx="447675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DB2B05-375F-4751-86DA-D72A315DB1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="2333625"/>
+          <a:ext cx="447675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399A956-122E-4B04-A2EF-7E9E4D0B5AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5705475" y="5181600"/>
+          <a:ext cx="447675" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9255C-7568-4282-AA77-3692A7502719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="5648325"/>
+          <a:ext cx="457200" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F549D561-F4AE-4A89-9C6D-BE8598CD3150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="933450"/>
+          <a:ext cx="447675" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE8503F-BD37-4A97-B721-819F63C2A32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4848225" y="1866900"/>
+          <a:ext cx="400050" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11BF55F-9201-4B52-BA06-60B61FF6E4AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4857750" y="2800350"/>
+          <a:ext cx="457200" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+                <a:srcRect/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1915,11 +3396,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89027EE2-6364-4B05-A3EC-330FF227CA20}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="11.25" style="2"/>
+  </cols>
+  <sheetData/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E21D9-C9BC-482D-A067-1E4699D0B14F}">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
@@ -2189,4 +3695,499 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="3"/>
+    <col min="3" max="3" width="24.25" style="3" customWidth="1"/>
+    <col min="4" max="5" width="11.25" style="4"/>
+    <col min="6" max="6" width="35" style="5" customWidth="1"/>
+    <col min="7" max="256" width="11.25" style="2"/>
+    <col min="257" max="257" width="28.125" style="2" customWidth="1"/>
+    <col min="258" max="258" width="11.25" style="2"/>
+    <col min="259" max="259" width="24.25" style="2" customWidth="1"/>
+    <col min="260" max="261" width="11.25" style="2"/>
+    <col min="262" max="262" width="35" style="2" customWidth="1"/>
+    <col min="263" max="512" width="11.25" style="2"/>
+    <col min="513" max="513" width="28.125" style="2" customWidth="1"/>
+    <col min="514" max="514" width="11.25" style="2"/>
+    <col min="515" max="515" width="24.25" style="2" customWidth="1"/>
+    <col min="516" max="517" width="11.25" style="2"/>
+    <col min="518" max="518" width="35" style="2" customWidth="1"/>
+    <col min="519" max="768" width="11.25" style="2"/>
+    <col min="769" max="769" width="28.125" style="2" customWidth="1"/>
+    <col min="770" max="770" width="11.25" style="2"/>
+    <col min="771" max="771" width="24.25" style="2" customWidth="1"/>
+    <col min="772" max="773" width="11.25" style="2"/>
+    <col min="774" max="774" width="35" style="2" customWidth="1"/>
+    <col min="775" max="1024" width="11.25" style="2"/>
+    <col min="1025" max="1025" width="28.125" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="11.25" style="2"/>
+    <col min="1027" max="1027" width="24.25" style="2" customWidth="1"/>
+    <col min="1028" max="1029" width="11.25" style="2"/>
+    <col min="1030" max="1030" width="35" style="2" customWidth="1"/>
+    <col min="1031" max="1280" width="11.25" style="2"/>
+    <col min="1281" max="1281" width="28.125" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="11.25" style="2"/>
+    <col min="1283" max="1283" width="24.25" style="2" customWidth="1"/>
+    <col min="1284" max="1285" width="11.25" style="2"/>
+    <col min="1286" max="1286" width="35" style="2" customWidth="1"/>
+    <col min="1287" max="1536" width="11.25" style="2"/>
+    <col min="1537" max="1537" width="28.125" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="11.25" style="2"/>
+    <col min="1539" max="1539" width="24.25" style="2" customWidth="1"/>
+    <col min="1540" max="1541" width="11.25" style="2"/>
+    <col min="1542" max="1542" width="35" style="2" customWidth="1"/>
+    <col min="1543" max="1792" width="11.25" style="2"/>
+    <col min="1793" max="1793" width="28.125" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="11.25" style="2"/>
+    <col min="1795" max="1795" width="24.25" style="2" customWidth="1"/>
+    <col min="1796" max="1797" width="11.25" style="2"/>
+    <col min="1798" max="1798" width="35" style="2" customWidth="1"/>
+    <col min="1799" max="2048" width="11.25" style="2"/>
+    <col min="2049" max="2049" width="28.125" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="11.25" style="2"/>
+    <col min="2051" max="2051" width="24.25" style="2" customWidth="1"/>
+    <col min="2052" max="2053" width="11.25" style="2"/>
+    <col min="2054" max="2054" width="35" style="2" customWidth="1"/>
+    <col min="2055" max="2304" width="11.25" style="2"/>
+    <col min="2305" max="2305" width="28.125" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="11.25" style="2"/>
+    <col min="2307" max="2307" width="24.25" style="2" customWidth="1"/>
+    <col min="2308" max="2309" width="11.25" style="2"/>
+    <col min="2310" max="2310" width="35" style="2" customWidth="1"/>
+    <col min="2311" max="2560" width="11.25" style="2"/>
+    <col min="2561" max="2561" width="28.125" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="11.25" style="2"/>
+    <col min="2563" max="2563" width="24.25" style="2" customWidth="1"/>
+    <col min="2564" max="2565" width="11.25" style="2"/>
+    <col min="2566" max="2566" width="35" style="2" customWidth="1"/>
+    <col min="2567" max="2816" width="11.25" style="2"/>
+    <col min="2817" max="2817" width="28.125" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="11.25" style="2"/>
+    <col min="2819" max="2819" width="24.25" style="2" customWidth="1"/>
+    <col min="2820" max="2821" width="11.25" style="2"/>
+    <col min="2822" max="2822" width="35" style="2" customWidth="1"/>
+    <col min="2823" max="3072" width="11.25" style="2"/>
+    <col min="3073" max="3073" width="28.125" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="11.25" style="2"/>
+    <col min="3075" max="3075" width="24.25" style="2" customWidth="1"/>
+    <col min="3076" max="3077" width="11.25" style="2"/>
+    <col min="3078" max="3078" width="35" style="2" customWidth="1"/>
+    <col min="3079" max="3328" width="11.25" style="2"/>
+    <col min="3329" max="3329" width="28.125" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="11.25" style="2"/>
+    <col min="3331" max="3331" width="24.25" style="2" customWidth="1"/>
+    <col min="3332" max="3333" width="11.25" style="2"/>
+    <col min="3334" max="3334" width="35" style="2" customWidth="1"/>
+    <col min="3335" max="3584" width="11.25" style="2"/>
+    <col min="3585" max="3585" width="28.125" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="11.25" style="2"/>
+    <col min="3587" max="3587" width="24.25" style="2" customWidth="1"/>
+    <col min="3588" max="3589" width="11.25" style="2"/>
+    <col min="3590" max="3590" width="35" style="2" customWidth="1"/>
+    <col min="3591" max="3840" width="11.25" style="2"/>
+    <col min="3841" max="3841" width="28.125" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="11.25" style="2"/>
+    <col min="3843" max="3843" width="24.25" style="2" customWidth="1"/>
+    <col min="3844" max="3845" width="11.25" style="2"/>
+    <col min="3846" max="3846" width="35" style="2" customWidth="1"/>
+    <col min="3847" max="4096" width="11.25" style="2"/>
+    <col min="4097" max="4097" width="28.125" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="11.25" style="2"/>
+    <col min="4099" max="4099" width="24.25" style="2" customWidth="1"/>
+    <col min="4100" max="4101" width="11.25" style="2"/>
+    <col min="4102" max="4102" width="35" style="2" customWidth="1"/>
+    <col min="4103" max="4352" width="11.25" style="2"/>
+    <col min="4353" max="4353" width="28.125" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="11.25" style="2"/>
+    <col min="4355" max="4355" width="24.25" style="2" customWidth="1"/>
+    <col min="4356" max="4357" width="11.25" style="2"/>
+    <col min="4358" max="4358" width="35" style="2" customWidth="1"/>
+    <col min="4359" max="4608" width="11.25" style="2"/>
+    <col min="4609" max="4609" width="28.125" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="11.25" style="2"/>
+    <col min="4611" max="4611" width="24.25" style="2" customWidth="1"/>
+    <col min="4612" max="4613" width="11.25" style="2"/>
+    <col min="4614" max="4614" width="35" style="2" customWidth="1"/>
+    <col min="4615" max="4864" width="11.25" style="2"/>
+    <col min="4865" max="4865" width="28.125" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="11.25" style="2"/>
+    <col min="4867" max="4867" width="24.25" style="2" customWidth="1"/>
+    <col min="4868" max="4869" width="11.25" style="2"/>
+    <col min="4870" max="4870" width="35" style="2" customWidth="1"/>
+    <col min="4871" max="5120" width="11.25" style="2"/>
+    <col min="5121" max="5121" width="28.125" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="11.25" style="2"/>
+    <col min="5123" max="5123" width="24.25" style="2" customWidth="1"/>
+    <col min="5124" max="5125" width="11.25" style="2"/>
+    <col min="5126" max="5126" width="35" style="2" customWidth="1"/>
+    <col min="5127" max="5376" width="11.25" style="2"/>
+    <col min="5377" max="5377" width="28.125" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="11.25" style="2"/>
+    <col min="5379" max="5379" width="24.25" style="2" customWidth="1"/>
+    <col min="5380" max="5381" width="11.25" style="2"/>
+    <col min="5382" max="5382" width="35" style="2" customWidth="1"/>
+    <col min="5383" max="5632" width="11.25" style="2"/>
+    <col min="5633" max="5633" width="28.125" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="11.25" style="2"/>
+    <col min="5635" max="5635" width="24.25" style="2" customWidth="1"/>
+    <col min="5636" max="5637" width="11.25" style="2"/>
+    <col min="5638" max="5638" width="35" style="2" customWidth="1"/>
+    <col min="5639" max="5888" width="11.25" style="2"/>
+    <col min="5889" max="5889" width="28.125" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="11.25" style="2"/>
+    <col min="5891" max="5891" width="24.25" style="2" customWidth="1"/>
+    <col min="5892" max="5893" width="11.25" style="2"/>
+    <col min="5894" max="5894" width="35" style="2" customWidth="1"/>
+    <col min="5895" max="6144" width="11.25" style="2"/>
+    <col min="6145" max="6145" width="28.125" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="11.25" style="2"/>
+    <col min="6147" max="6147" width="24.25" style="2" customWidth="1"/>
+    <col min="6148" max="6149" width="11.25" style="2"/>
+    <col min="6150" max="6150" width="35" style="2" customWidth="1"/>
+    <col min="6151" max="6400" width="11.25" style="2"/>
+    <col min="6401" max="6401" width="28.125" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="11.25" style="2"/>
+    <col min="6403" max="6403" width="24.25" style="2" customWidth="1"/>
+    <col min="6404" max="6405" width="11.25" style="2"/>
+    <col min="6406" max="6406" width="35" style="2" customWidth="1"/>
+    <col min="6407" max="6656" width="11.25" style="2"/>
+    <col min="6657" max="6657" width="28.125" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="11.25" style="2"/>
+    <col min="6659" max="6659" width="24.25" style="2" customWidth="1"/>
+    <col min="6660" max="6661" width="11.25" style="2"/>
+    <col min="6662" max="6662" width="35" style="2" customWidth="1"/>
+    <col min="6663" max="6912" width="11.25" style="2"/>
+    <col min="6913" max="6913" width="28.125" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="11.25" style="2"/>
+    <col min="6915" max="6915" width="24.25" style="2" customWidth="1"/>
+    <col min="6916" max="6917" width="11.25" style="2"/>
+    <col min="6918" max="6918" width="35" style="2" customWidth="1"/>
+    <col min="6919" max="7168" width="11.25" style="2"/>
+    <col min="7169" max="7169" width="28.125" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="11.25" style="2"/>
+    <col min="7171" max="7171" width="24.25" style="2" customWidth="1"/>
+    <col min="7172" max="7173" width="11.25" style="2"/>
+    <col min="7174" max="7174" width="35" style="2" customWidth="1"/>
+    <col min="7175" max="7424" width="11.25" style="2"/>
+    <col min="7425" max="7425" width="28.125" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="11.25" style="2"/>
+    <col min="7427" max="7427" width="24.25" style="2" customWidth="1"/>
+    <col min="7428" max="7429" width="11.25" style="2"/>
+    <col min="7430" max="7430" width="35" style="2" customWidth="1"/>
+    <col min="7431" max="7680" width="11.25" style="2"/>
+    <col min="7681" max="7681" width="28.125" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="11.25" style="2"/>
+    <col min="7683" max="7683" width="24.25" style="2" customWidth="1"/>
+    <col min="7684" max="7685" width="11.25" style="2"/>
+    <col min="7686" max="7686" width="35" style="2" customWidth="1"/>
+    <col min="7687" max="7936" width="11.25" style="2"/>
+    <col min="7937" max="7937" width="28.125" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="11.25" style="2"/>
+    <col min="7939" max="7939" width="24.25" style="2" customWidth="1"/>
+    <col min="7940" max="7941" width="11.25" style="2"/>
+    <col min="7942" max="7942" width="35" style="2" customWidth="1"/>
+    <col min="7943" max="8192" width="11.25" style="2"/>
+    <col min="8193" max="8193" width="28.125" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="11.25" style="2"/>
+    <col min="8195" max="8195" width="24.25" style="2" customWidth="1"/>
+    <col min="8196" max="8197" width="11.25" style="2"/>
+    <col min="8198" max="8198" width="35" style="2" customWidth="1"/>
+    <col min="8199" max="8448" width="11.25" style="2"/>
+    <col min="8449" max="8449" width="28.125" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="11.25" style="2"/>
+    <col min="8451" max="8451" width="24.25" style="2" customWidth="1"/>
+    <col min="8452" max="8453" width="11.25" style="2"/>
+    <col min="8454" max="8454" width="35" style="2" customWidth="1"/>
+    <col min="8455" max="8704" width="11.25" style="2"/>
+    <col min="8705" max="8705" width="28.125" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="11.25" style="2"/>
+    <col min="8707" max="8707" width="24.25" style="2" customWidth="1"/>
+    <col min="8708" max="8709" width="11.25" style="2"/>
+    <col min="8710" max="8710" width="35" style="2" customWidth="1"/>
+    <col min="8711" max="8960" width="11.25" style="2"/>
+    <col min="8961" max="8961" width="28.125" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="11.25" style="2"/>
+    <col min="8963" max="8963" width="24.25" style="2" customWidth="1"/>
+    <col min="8964" max="8965" width="11.25" style="2"/>
+    <col min="8966" max="8966" width="35" style="2" customWidth="1"/>
+    <col min="8967" max="9216" width="11.25" style="2"/>
+    <col min="9217" max="9217" width="28.125" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="11.25" style="2"/>
+    <col min="9219" max="9219" width="24.25" style="2" customWidth="1"/>
+    <col min="9220" max="9221" width="11.25" style="2"/>
+    <col min="9222" max="9222" width="35" style="2" customWidth="1"/>
+    <col min="9223" max="9472" width="11.25" style="2"/>
+    <col min="9473" max="9473" width="28.125" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="11.25" style="2"/>
+    <col min="9475" max="9475" width="24.25" style="2" customWidth="1"/>
+    <col min="9476" max="9477" width="11.25" style="2"/>
+    <col min="9478" max="9478" width="35" style="2" customWidth="1"/>
+    <col min="9479" max="9728" width="11.25" style="2"/>
+    <col min="9729" max="9729" width="28.125" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="11.25" style="2"/>
+    <col min="9731" max="9731" width="24.25" style="2" customWidth="1"/>
+    <col min="9732" max="9733" width="11.25" style="2"/>
+    <col min="9734" max="9734" width="35" style="2" customWidth="1"/>
+    <col min="9735" max="9984" width="11.25" style="2"/>
+    <col min="9985" max="9985" width="28.125" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="11.25" style="2"/>
+    <col min="9987" max="9987" width="24.25" style="2" customWidth="1"/>
+    <col min="9988" max="9989" width="11.25" style="2"/>
+    <col min="9990" max="9990" width="35" style="2" customWidth="1"/>
+    <col min="9991" max="10240" width="11.25" style="2"/>
+    <col min="10241" max="10241" width="28.125" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="11.25" style="2"/>
+    <col min="10243" max="10243" width="24.25" style="2" customWidth="1"/>
+    <col min="10244" max="10245" width="11.25" style="2"/>
+    <col min="10246" max="10246" width="35" style="2" customWidth="1"/>
+    <col min="10247" max="10496" width="11.25" style="2"/>
+    <col min="10497" max="10497" width="28.125" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="11.25" style="2"/>
+    <col min="10499" max="10499" width="24.25" style="2" customWidth="1"/>
+    <col min="10500" max="10501" width="11.25" style="2"/>
+    <col min="10502" max="10502" width="35" style="2" customWidth="1"/>
+    <col min="10503" max="10752" width="11.25" style="2"/>
+    <col min="10753" max="10753" width="28.125" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="11.25" style="2"/>
+    <col min="10755" max="10755" width="24.25" style="2" customWidth="1"/>
+    <col min="10756" max="10757" width="11.25" style="2"/>
+    <col min="10758" max="10758" width="35" style="2" customWidth="1"/>
+    <col min="10759" max="11008" width="11.25" style="2"/>
+    <col min="11009" max="11009" width="28.125" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="11.25" style="2"/>
+    <col min="11011" max="11011" width="24.25" style="2" customWidth="1"/>
+    <col min="11012" max="11013" width="11.25" style="2"/>
+    <col min="11014" max="11014" width="35" style="2" customWidth="1"/>
+    <col min="11015" max="11264" width="11.25" style="2"/>
+    <col min="11265" max="11265" width="28.125" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="11.25" style="2"/>
+    <col min="11267" max="11267" width="24.25" style="2" customWidth="1"/>
+    <col min="11268" max="11269" width="11.25" style="2"/>
+    <col min="11270" max="11270" width="35" style="2" customWidth="1"/>
+    <col min="11271" max="11520" width="11.25" style="2"/>
+    <col min="11521" max="11521" width="28.125" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="11.25" style="2"/>
+    <col min="11523" max="11523" width="24.25" style="2" customWidth="1"/>
+    <col min="11524" max="11525" width="11.25" style="2"/>
+    <col min="11526" max="11526" width="35" style="2" customWidth="1"/>
+    <col min="11527" max="11776" width="11.25" style="2"/>
+    <col min="11777" max="11777" width="28.125" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="11.25" style="2"/>
+    <col min="11779" max="11779" width="24.25" style="2" customWidth="1"/>
+    <col min="11780" max="11781" width="11.25" style="2"/>
+    <col min="11782" max="11782" width="35" style="2" customWidth="1"/>
+    <col min="11783" max="12032" width="11.25" style="2"/>
+    <col min="12033" max="12033" width="28.125" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="11.25" style="2"/>
+    <col min="12035" max="12035" width="24.25" style="2" customWidth="1"/>
+    <col min="12036" max="12037" width="11.25" style="2"/>
+    <col min="12038" max="12038" width="35" style="2" customWidth="1"/>
+    <col min="12039" max="12288" width="11.25" style="2"/>
+    <col min="12289" max="12289" width="28.125" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="11.25" style="2"/>
+    <col min="12291" max="12291" width="24.25" style="2" customWidth="1"/>
+    <col min="12292" max="12293" width="11.25" style="2"/>
+    <col min="12294" max="12294" width="35" style="2" customWidth="1"/>
+    <col min="12295" max="12544" width="11.25" style="2"/>
+    <col min="12545" max="12545" width="28.125" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="11.25" style="2"/>
+    <col min="12547" max="12547" width="24.25" style="2" customWidth="1"/>
+    <col min="12548" max="12549" width="11.25" style="2"/>
+    <col min="12550" max="12550" width="35" style="2" customWidth="1"/>
+    <col min="12551" max="12800" width="11.25" style="2"/>
+    <col min="12801" max="12801" width="28.125" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="11.25" style="2"/>
+    <col min="12803" max="12803" width="24.25" style="2" customWidth="1"/>
+    <col min="12804" max="12805" width="11.25" style="2"/>
+    <col min="12806" max="12806" width="35" style="2" customWidth="1"/>
+    <col min="12807" max="13056" width="11.25" style="2"/>
+    <col min="13057" max="13057" width="28.125" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="11.25" style="2"/>
+    <col min="13059" max="13059" width="24.25" style="2" customWidth="1"/>
+    <col min="13060" max="13061" width="11.25" style="2"/>
+    <col min="13062" max="13062" width="35" style="2" customWidth="1"/>
+    <col min="13063" max="13312" width="11.25" style="2"/>
+    <col min="13313" max="13313" width="28.125" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="11.25" style="2"/>
+    <col min="13315" max="13315" width="24.25" style="2" customWidth="1"/>
+    <col min="13316" max="13317" width="11.25" style="2"/>
+    <col min="13318" max="13318" width="35" style="2" customWidth="1"/>
+    <col min="13319" max="13568" width="11.25" style="2"/>
+    <col min="13569" max="13569" width="28.125" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="11.25" style="2"/>
+    <col min="13571" max="13571" width="24.25" style="2" customWidth="1"/>
+    <col min="13572" max="13573" width="11.25" style="2"/>
+    <col min="13574" max="13574" width="35" style="2" customWidth="1"/>
+    <col min="13575" max="13824" width="11.25" style="2"/>
+    <col min="13825" max="13825" width="28.125" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="11.25" style="2"/>
+    <col min="13827" max="13827" width="24.25" style="2" customWidth="1"/>
+    <col min="13828" max="13829" width="11.25" style="2"/>
+    <col min="13830" max="13830" width="35" style="2" customWidth="1"/>
+    <col min="13831" max="14080" width="11.25" style="2"/>
+    <col min="14081" max="14081" width="28.125" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="11.25" style="2"/>
+    <col min="14083" max="14083" width="24.25" style="2" customWidth="1"/>
+    <col min="14084" max="14085" width="11.25" style="2"/>
+    <col min="14086" max="14086" width="35" style="2" customWidth="1"/>
+    <col min="14087" max="14336" width="11.25" style="2"/>
+    <col min="14337" max="14337" width="28.125" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="11.25" style="2"/>
+    <col min="14339" max="14339" width="24.25" style="2" customWidth="1"/>
+    <col min="14340" max="14341" width="11.25" style="2"/>
+    <col min="14342" max="14342" width="35" style="2" customWidth="1"/>
+    <col min="14343" max="14592" width="11.25" style="2"/>
+    <col min="14593" max="14593" width="28.125" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="11.25" style="2"/>
+    <col min="14595" max="14595" width="24.25" style="2" customWidth="1"/>
+    <col min="14596" max="14597" width="11.25" style="2"/>
+    <col min="14598" max="14598" width="35" style="2" customWidth="1"/>
+    <col min="14599" max="14848" width="11.25" style="2"/>
+    <col min="14849" max="14849" width="28.125" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="11.25" style="2"/>
+    <col min="14851" max="14851" width="24.25" style="2" customWidth="1"/>
+    <col min="14852" max="14853" width="11.25" style="2"/>
+    <col min="14854" max="14854" width="35" style="2" customWidth="1"/>
+    <col min="14855" max="15104" width="11.25" style="2"/>
+    <col min="15105" max="15105" width="28.125" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="11.25" style="2"/>
+    <col min="15107" max="15107" width="24.25" style="2" customWidth="1"/>
+    <col min="15108" max="15109" width="11.25" style="2"/>
+    <col min="15110" max="15110" width="35" style="2" customWidth="1"/>
+    <col min="15111" max="15360" width="11.25" style="2"/>
+    <col min="15361" max="15361" width="28.125" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="11.25" style="2"/>
+    <col min="15363" max="15363" width="24.25" style="2" customWidth="1"/>
+    <col min="15364" max="15365" width="11.25" style="2"/>
+    <col min="15366" max="15366" width="35" style="2" customWidth="1"/>
+    <col min="15367" max="15616" width="11.25" style="2"/>
+    <col min="15617" max="15617" width="28.125" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="11.25" style="2"/>
+    <col min="15619" max="15619" width="24.25" style="2" customWidth="1"/>
+    <col min="15620" max="15621" width="11.25" style="2"/>
+    <col min="15622" max="15622" width="35" style="2" customWidth="1"/>
+    <col min="15623" max="15872" width="11.25" style="2"/>
+    <col min="15873" max="15873" width="28.125" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="11.25" style="2"/>
+    <col min="15875" max="15875" width="24.25" style="2" customWidth="1"/>
+    <col min="15876" max="15877" width="11.25" style="2"/>
+    <col min="15878" max="15878" width="35" style="2" customWidth="1"/>
+    <col min="15879" max="16128" width="11.25" style="2"/>
+    <col min="16129" max="16129" width="28.125" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="11.25" style="2"/>
+    <col min="16131" max="16131" width="24.25" style="2" customWidth="1"/>
+    <col min="16132" max="16133" width="11.25" style="2"/>
+    <col min="16134" max="16134" width="35" style="2" customWidth="1"/>
+    <col min="16135" max="16384" width="11.25" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="87.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B6F35-382D-4D1A-98A9-4F647499D5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C2438-991D-43BC-983E-08F6A84C5CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1185" windowWidth="15855" windowHeight="14850" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="map" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>map1.gif</t>
   </si>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>敵を剣2で倒したらゴールを表示する</t>
+  </si>
+  <si>
+    <t>NPC</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -462,8 +466,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>424872</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2019</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>411594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -532,50 +536,6 @@
         <a:xfrm>
           <a:off x="3429000" y="323849"/>
           <a:ext cx="424872" cy="385039"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>409574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>424872</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>398316</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45C8E8A-8B46-7D38-5D23-53905B9B4275}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1142999"/>
-          <a:ext cx="424872" cy="398317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,7 +571,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -655,7 +615,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -699,7 +659,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -743,7 +703,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -787,7 +747,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -831,7 +791,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -875,7 +835,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -919,7 +879,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -963,7 +923,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1007,7 +967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1051,7 +1011,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1095,7 +1055,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1139,7 +1099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,7 +1143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1227,7 +1187,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1271,7 +1231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1315,7 +1275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,7 +1319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1403,7 +1363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1447,7 +1407,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1491,7 +1451,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1535,7 +1495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1539,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1623,7 +1583,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1667,7 +1627,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1711,7 +1671,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1755,7 +1715,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1764,6 +1724,50 @@
         <a:xfrm>
           <a:off x="3429000" y="14658975"/>
           <a:ext cx="438150" cy="424872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>424872</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>398317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23BE708-B79D-4380-AB89-70C856F15FF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="1181100"/>
+          <a:ext cx="424872" cy="398317"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1779,13 +1783,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
@@ -1867,13 +1871,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
@@ -1955,13 +1959,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -2043,13 +2047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
@@ -2131,23 +2135,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2886664D-63D7-40FB-A972-AC76A5E1E666}"/>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722B1094-722C-413F-80AF-F2F174E611AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2160,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2170,8 +2174,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848225" y="5162550"/>
-          <a:ext cx="447675" cy="361950"/>
+          <a:off x="4848225" y="4048125"/>
+          <a:ext cx="447675" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2221,21 +2225,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722B1094-722C-413F-80AF-F2F174E611AA}"/>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145AC820-C9DE-49B4-940B-EA2EC803DF39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2258,8 +2262,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848225" y="4048125"/>
-          <a:ext cx="447675" cy="381000"/>
+          <a:off x="5705475" y="3267075"/>
+          <a:ext cx="447675" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,23 +2311,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC04F599-2F4E-42A3-BA4F-5B7F3CB53EAF}"/>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889FEF15-AC92-4074-BFAC-62F9C1BE6072}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,8 +2350,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5705475" y="4048125"/>
-          <a:ext cx="447675" cy="361950"/>
+          <a:off x="5705475" y="2800350"/>
+          <a:ext cx="447675" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2395,23 +2399,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>466725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145AC820-C9DE-49B4-940B-EA2EC803DF39}"/>
+        <xdr:cNvPr id="11" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DB2B05-375F-4751-86DA-D72A315DB1B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2438,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5705475" y="3267075"/>
+          <a:off x="5705475" y="2333625"/>
           <a:ext cx="447675" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2483,23 +2487,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889FEF15-AC92-4074-BFAC-62F9C1BE6072}"/>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399A956-122E-4B04-A2EF-7E9E4D0B5AE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2512,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2522,8 +2526,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5705475" y="2800350"/>
-          <a:ext cx="447675" cy="428625"/>
+          <a:off x="5705475" y="5181600"/>
+          <a:ext cx="447675" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2571,23 +2575,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53DB2B05-375F-4751-86DA-D72A315DB1B1}"/>
+        <xdr:cNvPr id="13" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9255C-7568-4282-AA77-3692A7502719}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2596,7 +2600,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2610,8 +2614,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5705475" y="2333625"/>
-          <a:ext cx="447675" cy="428625"/>
+          <a:off x="4848225" y="5648325"/>
+          <a:ext cx="457200" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2659,23 +2663,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7399A956-122E-4B04-A2EF-7E9E4D0B5AE5}"/>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F549D561-F4AE-4A89-9C6D-BE8598CD3150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2688,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2698,8 +2702,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5705475" y="5181600"/>
-          <a:ext cx="447675" cy="400050"/>
+          <a:off x="4848225" y="933450"/>
+          <a:ext cx="447675" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2747,23 +2751,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F9255C-7568-4282-AA77-3692A7502719}"/>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE8503F-BD37-4A97-B721-819F63C2A32A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2776,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2786,8 +2790,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848225" y="5648325"/>
-          <a:ext cx="457200" cy="409575"/>
+          <a:off x="4848225" y="1866900"/>
+          <a:ext cx="400050" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2835,23 +2839,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>361950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F549D561-F4AE-4A89-9C6D-BE8598CD3150}"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11BF55F-9201-4B52-BA06-60B61FF6E4AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2874,8 +2878,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848225" y="933450"/>
-          <a:ext cx="447675" cy="361950"/>
+          <a:off x="4857750" y="2800350"/>
+          <a:ext cx="457200" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2923,23 +2927,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE8503F-BD37-4A97-B721-819F63C2A32A}"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>433137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED1EE5-D008-4230-94C6-818ADFF22203}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2962,8 +2966,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848225" y="1866900"/>
-          <a:ext cx="400050" cy="371475"/>
+          <a:off x="4852737" y="5644816"/>
+          <a:ext cx="447675" cy="433137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3012,22 +3016,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11BF55F-9201-4B52-BA06-60B61FF6E4AC}"/>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>433137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A722B12-3253-4156-B31C-6A77270F5C00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3050,8 +3054,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4857750" y="2800350"/>
-          <a:ext cx="457200" cy="466725"/>
+          <a:off x="5715000" y="4271211"/>
+          <a:ext cx="447675" cy="433137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3424,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E21D9-C9BC-482D-A067-1E4699D0B14F}">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
@@ -3442,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3699,484 +3703,483 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="3"/>
-    <col min="3" max="3" width="24.25" style="3" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="4"/>
-    <col min="6" max="6" width="35" style="5" customWidth="1"/>
-    <col min="7" max="256" width="11.25" style="2"/>
-    <col min="257" max="257" width="28.125" style="2" customWidth="1"/>
-    <col min="258" max="258" width="11.25" style="2"/>
-    <col min="259" max="259" width="24.25" style="2" customWidth="1"/>
-    <col min="260" max="261" width="11.25" style="2"/>
-    <col min="262" max="262" width="35" style="2" customWidth="1"/>
-    <col min="263" max="512" width="11.25" style="2"/>
-    <col min="513" max="513" width="28.125" style="2" customWidth="1"/>
-    <col min="514" max="514" width="11.25" style="2"/>
-    <col min="515" max="515" width="24.25" style="2" customWidth="1"/>
-    <col min="516" max="517" width="11.25" style="2"/>
-    <col min="518" max="518" width="35" style="2" customWidth="1"/>
-    <col min="519" max="768" width="11.25" style="2"/>
-    <col min="769" max="769" width="28.125" style="2" customWidth="1"/>
-    <col min="770" max="770" width="11.25" style="2"/>
-    <col min="771" max="771" width="24.25" style="2" customWidth="1"/>
-    <col min="772" max="773" width="11.25" style="2"/>
-    <col min="774" max="774" width="35" style="2" customWidth="1"/>
-    <col min="775" max="1024" width="11.25" style="2"/>
-    <col min="1025" max="1025" width="28.125" style="2" customWidth="1"/>
-    <col min="1026" max="1026" width="11.25" style="2"/>
-    <col min="1027" max="1027" width="24.25" style="2" customWidth="1"/>
-    <col min="1028" max="1029" width="11.25" style="2"/>
-    <col min="1030" max="1030" width="35" style="2" customWidth="1"/>
-    <col min="1031" max="1280" width="11.25" style="2"/>
-    <col min="1281" max="1281" width="28.125" style="2" customWidth="1"/>
-    <col min="1282" max="1282" width="11.25" style="2"/>
-    <col min="1283" max="1283" width="24.25" style="2" customWidth="1"/>
-    <col min="1284" max="1285" width="11.25" style="2"/>
-    <col min="1286" max="1286" width="35" style="2" customWidth="1"/>
-    <col min="1287" max="1536" width="11.25" style="2"/>
-    <col min="1537" max="1537" width="28.125" style="2" customWidth="1"/>
-    <col min="1538" max="1538" width="11.25" style="2"/>
-    <col min="1539" max="1539" width="24.25" style="2" customWidth="1"/>
-    <col min="1540" max="1541" width="11.25" style="2"/>
-    <col min="1542" max="1542" width="35" style="2" customWidth="1"/>
-    <col min="1543" max="1792" width="11.25" style="2"/>
-    <col min="1793" max="1793" width="28.125" style="2" customWidth="1"/>
-    <col min="1794" max="1794" width="11.25" style="2"/>
-    <col min="1795" max="1795" width="24.25" style="2" customWidth="1"/>
-    <col min="1796" max="1797" width="11.25" style="2"/>
-    <col min="1798" max="1798" width="35" style="2" customWidth="1"/>
-    <col min="1799" max="2048" width="11.25" style="2"/>
-    <col min="2049" max="2049" width="28.125" style="2" customWidth="1"/>
-    <col min="2050" max="2050" width="11.25" style="2"/>
-    <col min="2051" max="2051" width="24.25" style="2" customWidth="1"/>
-    <col min="2052" max="2053" width="11.25" style="2"/>
-    <col min="2054" max="2054" width="35" style="2" customWidth="1"/>
-    <col min="2055" max="2304" width="11.25" style="2"/>
-    <col min="2305" max="2305" width="28.125" style="2" customWidth="1"/>
-    <col min="2306" max="2306" width="11.25" style="2"/>
-    <col min="2307" max="2307" width="24.25" style="2" customWidth="1"/>
-    <col min="2308" max="2309" width="11.25" style="2"/>
-    <col min="2310" max="2310" width="35" style="2" customWidth="1"/>
-    <col min="2311" max="2560" width="11.25" style="2"/>
-    <col min="2561" max="2561" width="28.125" style="2" customWidth="1"/>
-    <col min="2562" max="2562" width="11.25" style="2"/>
-    <col min="2563" max="2563" width="24.25" style="2" customWidth="1"/>
-    <col min="2564" max="2565" width="11.25" style="2"/>
-    <col min="2566" max="2566" width="35" style="2" customWidth="1"/>
-    <col min="2567" max="2816" width="11.25" style="2"/>
-    <col min="2817" max="2817" width="28.125" style="2" customWidth="1"/>
-    <col min="2818" max="2818" width="11.25" style="2"/>
-    <col min="2819" max="2819" width="24.25" style="2" customWidth="1"/>
-    <col min="2820" max="2821" width="11.25" style="2"/>
-    <col min="2822" max="2822" width="35" style="2" customWidth="1"/>
-    <col min="2823" max="3072" width="11.25" style="2"/>
-    <col min="3073" max="3073" width="28.125" style="2" customWidth="1"/>
-    <col min="3074" max="3074" width="11.25" style="2"/>
-    <col min="3075" max="3075" width="24.25" style="2" customWidth="1"/>
-    <col min="3076" max="3077" width="11.25" style="2"/>
-    <col min="3078" max="3078" width="35" style="2" customWidth="1"/>
-    <col min="3079" max="3328" width="11.25" style="2"/>
-    <col min="3329" max="3329" width="28.125" style="2" customWidth="1"/>
-    <col min="3330" max="3330" width="11.25" style="2"/>
-    <col min="3331" max="3331" width="24.25" style="2" customWidth="1"/>
-    <col min="3332" max="3333" width="11.25" style="2"/>
-    <col min="3334" max="3334" width="35" style="2" customWidth="1"/>
-    <col min="3335" max="3584" width="11.25" style="2"/>
-    <col min="3585" max="3585" width="28.125" style="2" customWidth="1"/>
-    <col min="3586" max="3586" width="11.25" style="2"/>
-    <col min="3587" max="3587" width="24.25" style="2" customWidth="1"/>
-    <col min="3588" max="3589" width="11.25" style="2"/>
-    <col min="3590" max="3590" width="35" style="2" customWidth="1"/>
-    <col min="3591" max="3840" width="11.25" style="2"/>
-    <col min="3841" max="3841" width="28.125" style="2" customWidth="1"/>
-    <col min="3842" max="3842" width="11.25" style="2"/>
-    <col min="3843" max="3843" width="24.25" style="2" customWidth="1"/>
-    <col min="3844" max="3845" width="11.25" style="2"/>
-    <col min="3846" max="3846" width="35" style="2" customWidth="1"/>
-    <col min="3847" max="4096" width="11.25" style="2"/>
-    <col min="4097" max="4097" width="28.125" style="2" customWidth="1"/>
-    <col min="4098" max="4098" width="11.25" style="2"/>
-    <col min="4099" max="4099" width="24.25" style="2" customWidth="1"/>
-    <col min="4100" max="4101" width="11.25" style="2"/>
-    <col min="4102" max="4102" width="35" style="2" customWidth="1"/>
-    <col min="4103" max="4352" width="11.25" style="2"/>
-    <col min="4353" max="4353" width="28.125" style="2" customWidth="1"/>
-    <col min="4354" max="4354" width="11.25" style="2"/>
-    <col min="4355" max="4355" width="24.25" style="2" customWidth="1"/>
-    <col min="4356" max="4357" width="11.25" style="2"/>
-    <col min="4358" max="4358" width="35" style="2" customWidth="1"/>
-    <col min="4359" max="4608" width="11.25" style="2"/>
-    <col min="4609" max="4609" width="28.125" style="2" customWidth="1"/>
-    <col min="4610" max="4610" width="11.25" style="2"/>
-    <col min="4611" max="4611" width="24.25" style="2" customWidth="1"/>
-    <col min="4612" max="4613" width="11.25" style="2"/>
-    <col min="4614" max="4614" width="35" style="2" customWidth="1"/>
-    <col min="4615" max="4864" width="11.25" style="2"/>
-    <col min="4865" max="4865" width="28.125" style="2" customWidth="1"/>
-    <col min="4866" max="4866" width="11.25" style="2"/>
-    <col min="4867" max="4867" width="24.25" style="2" customWidth="1"/>
-    <col min="4868" max="4869" width="11.25" style="2"/>
-    <col min="4870" max="4870" width="35" style="2" customWidth="1"/>
-    <col min="4871" max="5120" width="11.25" style="2"/>
-    <col min="5121" max="5121" width="28.125" style="2" customWidth="1"/>
-    <col min="5122" max="5122" width="11.25" style="2"/>
-    <col min="5123" max="5123" width="24.25" style="2" customWidth="1"/>
-    <col min="5124" max="5125" width="11.25" style="2"/>
-    <col min="5126" max="5126" width="35" style="2" customWidth="1"/>
-    <col min="5127" max="5376" width="11.25" style="2"/>
-    <col min="5377" max="5377" width="28.125" style="2" customWidth="1"/>
-    <col min="5378" max="5378" width="11.25" style="2"/>
-    <col min="5379" max="5379" width="24.25" style="2" customWidth="1"/>
-    <col min="5380" max="5381" width="11.25" style="2"/>
-    <col min="5382" max="5382" width="35" style="2" customWidth="1"/>
-    <col min="5383" max="5632" width="11.25" style="2"/>
-    <col min="5633" max="5633" width="28.125" style="2" customWidth="1"/>
-    <col min="5634" max="5634" width="11.25" style="2"/>
-    <col min="5635" max="5635" width="24.25" style="2" customWidth="1"/>
-    <col min="5636" max="5637" width="11.25" style="2"/>
-    <col min="5638" max="5638" width="35" style="2" customWidth="1"/>
-    <col min="5639" max="5888" width="11.25" style="2"/>
-    <col min="5889" max="5889" width="28.125" style="2" customWidth="1"/>
-    <col min="5890" max="5890" width="11.25" style="2"/>
-    <col min="5891" max="5891" width="24.25" style="2" customWidth="1"/>
-    <col min="5892" max="5893" width="11.25" style="2"/>
-    <col min="5894" max="5894" width="35" style="2" customWidth="1"/>
-    <col min="5895" max="6144" width="11.25" style="2"/>
-    <col min="6145" max="6145" width="28.125" style="2" customWidth="1"/>
-    <col min="6146" max="6146" width="11.25" style="2"/>
-    <col min="6147" max="6147" width="24.25" style="2" customWidth="1"/>
-    <col min="6148" max="6149" width="11.25" style="2"/>
-    <col min="6150" max="6150" width="35" style="2" customWidth="1"/>
-    <col min="6151" max="6400" width="11.25" style="2"/>
-    <col min="6401" max="6401" width="28.125" style="2" customWidth="1"/>
-    <col min="6402" max="6402" width="11.25" style="2"/>
-    <col min="6403" max="6403" width="24.25" style="2" customWidth="1"/>
-    <col min="6404" max="6405" width="11.25" style="2"/>
-    <col min="6406" max="6406" width="35" style="2" customWidth="1"/>
-    <col min="6407" max="6656" width="11.25" style="2"/>
-    <col min="6657" max="6657" width="28.125" style="2" customWidth="1"/>
-    <col min="6658" max="6658" width="11.25" style="2"/>
-    <col min="6659" max="6659" width="24.25" style="2" customWidth="1"/>
-    <col min="6660" max="6661" width="11.25" style="2"/>
-    <col min="6662" max="6662" width="35" style="2" customWidth="1"/>
-    <col min="6663" max="6912" width="11.25" style="2"/>
-    <col min="6913" max="6913" width="28.125" style="2" customWidth="1"/>
-    <col min="6914" max="6914" width="11.25" style="2"/>
-    <col min="6915" max="6915" width="24.25" style="2" customWidth="1"/>
-    <col min="6916" max="6917" width="11.25" style="2"/>
-    <col min="6918" max="6918" width="35" style="2" customWidth="1"/>
-    <col min="6919" max="7168" width="11.25" style="2"/>
-    <col min="7169" max="7169" width="28.125" style="2" customWidth="1"/>
-    <col min="7170" max="7170" width="11.25" style="2"/>
-    <col min="7171" max="7171" width="24.25" style="2" customWidth="1"/>
-    <col min="7172" max="7173" width="11.25" style="2"/>
-    <col min="7174" max="7174" width="35" style="2" customWidth="1"/>
-    <col min="7175" max="7424" width="11.25" style="2"/>
-    <col min="7425" max="7425" width="28.125" style="2" customWidth="1"/>
-    <col min="7426" max="7426" width="11.25" style="2"/>
-    <col min="7427" max="7427" width="24.25" style="2" customWidth="1"/>
-    <col min="7428" max="7429" width="11.25" style="2"/>
-    <col min="7430" max="7430" width="35" style="2" customWidth="1"/>
-    <col min="7431" max="7680" width="11.25" style="2"/>
-    <col min="7681" max="7681" width="28.125" style="2" customWidth="1"/>
-    <col min="7682" max="7682" width="11.25" style="2"/>
-    <col min="7683" max="7683" width="24.25" style="2" customWidth="1"/>
-    <col min="7684" max="7685" width="11.25" style="2"/>
-    <col min="7686" max="7686" width="35" style="2" customWidth="1"/>
-    <col min="7687" max="7936" width="11.25" style="2"/>
-    <col min="7937" max="7937" width="28.125" style="2" customWidth="1"/>
-    <col min="7938" max="7938" width="11.25" style="2"/>
-    <col min="7939" max="7939" width="24.25" style="2" customWidth="1"/>
-    <col min="7940" max="7941" width="11.25" style="2"/>
-    <col min="7942" max="7942" width="35" style="2" customWidth="1"/>
-    <col min="7943" max="8192" width="11.25" style="2"/>
-    <col min="8193" max="8193" width="28.125" style="2" customWidth="1"/>
-    <col min="8194" max="8194" width="11.25" style="2"/>
-    <col min="8195" max="8195" width="24.25" style="2" customWidth="1"/>
-    <col min="8196" max="8197" width="11.25" style="2"/>
-    <col min="8198" max="8198" width="35" style="2" customWidth="1"/>
-    <col min="8199" max="8448" width="11.25" style="2"/>
-    <col min="8449" max="8449" width="28.125" style="2" customWidth="1"/>
-    <col min="8450" max="8450" width="11.25" style="2"/>
-    <col min="8451" max="8451" width="24.25" style="2" customWidth="1"/>
-    <col min="8452" max="8453" width="11.25" style="2"/>
-    <col min="8454" max="8454" width="35" style="2" customWidth="1"/>
-    <col min="8455" max="8704" width="11.25" style="2"/>
-    <col min="8705" max="8705" width="28.125" style="2" customWidth="1"/>
-    <col min="8706" max="8706" width="11.25" style="2"/>
-    <col min="8707" max="8707" width="24.25" style="2" customWidth="1"/>
-    <col min="8708" max="8709" width="11.25" style="2"/>
-    <col min="8710" max="8710" width="35" style="2" customWidth="1"/>
-    <col min="8711" max="8960" width="11.25" style="2"/>
-    <col min="8961" max="8961" width="28.125" style="2" customWidth="1"/>
-    <col min="8962" max="8962" width="11.25" style="2"/>
-    <col min="8963" max="8963" width="24.25" style="2" customWidth="1"/>
-    <col min="8964" max="8965" width="11.25" style="2"/>
-    <col min="8966" max="8966" width="35" style="2" customWidth="1"/>
-    <col min="8967" max="9216" width="11.25" style="2"/>
-    <col min="9217" max="9217" width="28.125" style="2" customWidth="1"/>
-    <col min="9218" max="9218" width="11.25" style="2"/>
-    <col min="9219" max="9219" width="24.25" style="2" customWidth="1"/>
-    <col min="9220" max="9221" width="11.25" style="2"/>
-    <col min="9222" max="9222" width="35" style="2" customWidth="1"/>
-    <col min="9223" max="9472" width="11.25" style="2"/>
-    <col min="9473" max="9473" width="28.125" style="2" customWidth="1"/>
-    <col min="9474" max="9474" width="11.25" style="2"/>
-    <col min="9475" max="9475" width="24.25" style="2" customWidth="1"/>
-    <col min="9476" max="9477" width="11.25" style="2"/>
-    <col min="9478" max="9478" width="35" style="2" customWidth="1"/>
-    <col min="9479" max="9728" width="11.25" style="2"/>
-    <col min="9729" max="9729" width="28.125" style="2" customWidth="1"/>
-    <col min="9730" max="9730" width="11.25" style="2"/>
-    <col min="9731" max="9731" width="24.25" style="2" customWidth="1"/>
-    <col min="9732" max="9733" width="11.25" style="2"/>
-    <col min="9734" max="9734" width="35" style="2" customWidth="1"/>
-    <col min="9735" max="9984" width="11.25" style="2"/>
-    <col min="9985" max="9985" width="28.125" style="2" customWidth="1"/>
-    <col min="9986" max="9986" width="11.25" style="2"/>
-    <col min="9987" max="9987" width="24.25" style="2" customWidth="1"/>
-    <col min="9988" max="9989" width="11.25" style="2"/>
-    <col min="9990" max="9990" width="35" style="2" customWidth="1"/>
-    <col min="9991" max="10240" width="11.25" style="2"/>
-    <col min="10241" max="10241" width="28.125" style="2" customWidth="1"/>
-    <col min="10242" max="10242" width="11.25" style="2"/>
-    <col min="10243" max="10243" width="24.25" style="2" customWidth="1"/>
-    <col min="10244" max="10245" width="11.25" style="2"/>
-    <col min="10246" max="10246" width="35" style="2" customWidth="1"/>
-    <col min="10247" max="10496" width="11.25" style="2"/>
-    <col min="10497" max="10497" width="28.125" style="2" customWidth="1"/>
-    <col min="10498" max="10498" width="11.25" style="2"/>
-    <col min="10499" max="10499" width="24.25" style="2" customWidth="1"/>
-    <col min="10500" max="10501" width="11.25" style="2"/>
-    <col min="10502" max="10502" width="35" style="2" customWidth="1"/>
-    <col min="10503" max="10752" width="11.25" style="2"/>
-    <col min="10753" max="10753" width="28.125" style="2" customWidth="1"/>
-    <col min="10754" max="10754" width="11.25" style="2"/>
-    <col min="10755" max="10755" width="24.25" style="2" customWidth="1"/>
-    <col min="10756" max="10757" width="11.25" style="2"/>
-    <col min="10758" max="10758" width="35" style="2" customWidth="1"/>
-    <col min="10759" max="11008" width="11.25" style="2"/>
-    <col min="11009" max="11009" width="28.125" style="2" customWidth="1"/>
-    <col min="11010" max="11010" width="11.25" style="2"/>
-    <col min="11011" max="11011" width="24.25" style="2" customWidth="1"/>
-    <col min="11012" max="11013" width="11.25" style="2"/>
-    <col min="11014" max="11014" width="35" style="2" customWidth="1"/>
-    <col min="11015" max="11264" width="11.25" style="2"/>
-    <col min="11265" max="11265" width="28.125" style="2" customWidth="1"/>
-    <col min="11266" max="11266" width="11.25" style="2"/>
-    <col min="11267" max="11267" width="24.25" style="2" customWidth="1"/>
-    <col min="11268" max="11269" width="11.25" style="2"/>
-    <col min="11270" max="11270" width="35" style="2" customWidth="1"/>
-    <col min="11271" max="11520" width="11.25" style="2"/>
-    <col min="11521" max="11521" width="28.125" style="2" customWidth="1"/>
-    <col min="11522" max="11522" width="11.25" style="2"/>
-    <col min="11523" max="11523" width="24.25" style="2" customWidth="1"/>
-    <col min="11524" max="11525" width="11.25" style="2"/>
-    <col min="11526" max="11526" width="35" style="2" customWidth="1"/>
-    <col min="11527" max="11776" width="11.25" style="2"/>
-    <col min="11777" max="11777" width="28.125" style="2" customWidth="1"/>
-    <col min="11778" max="11778" width="11.25" style="2"/>
-    <col min="11779" max="11779" width="24.25" style="2" customWidth="1"/>
-    <col min="11780" max="11781" width="11.25" style="2"/>
-    <col min="11782" max="11782" width="35" style="2" customWidth="1"/>
-    <col min="11783" max="12032" width="11.25" style="2"/>
-    <col min="12033" max="12033" width="28.125" style="2" customWidth="1"/>
-    <col min="12034" max="12034" width="11.25" style="2"/>
-    <col min="12035" max="12035" width="24.25" style="2" customWidth="1"/>
-    <col min="12036" max="12037" width="11.25" style="2"/>
-    <col min="12038" max="12038" width="35" style="2" customWidth="1"/>
-    <col min="12039" max="12288" width="11.25" style="2"/>
-    <col min="12289" max="12289" width="28.125" style="2" customWidth="1"/>
-    <col min="12290" max="12290" width="11.25" style="2"/>
-    <col min="12291" max="12291" width="24.25" style="2" customWidth="1"/>
-    <col min="12292" max="12293" width="11.25" style="2"/>
-    <col min="12294" max="12294" width="35" style="2" customWidth="1"/>
-    <col min="12295" max="12544" width="11.25" style="2"/>
-    <col min="12545" max="12545" width="28.125" style="2" customWidth="1"/>
-    <col min="12546" max="12546" width="11.25" style="2"/>
-    <col min="12547" max="12547" width="24.25" style="2" customWidth="1"/>
-    <col min="12548" max="12549" width="11.25" style="2"/>
-    <col min="12550" max="12550" width="35" style="2" customWidth="1"/>
-    <col min="12551" max="12800" width="11.25" style="2"/>
-    <col min="12801" max="12801" width="28.125" style="2" customWidth="1"/>
-    <col min="12802" max="12802" width="11.25" style="2"/>
-    <col min="12803" max="12803" width="24.25" style="2" customWidth="1"/>
-    <col min="12804" max="12805" width="11.25" style="2"/>
-    <col min="12806" max="12806" width="35" style="2" customWidth="1"/>
-    <col min="12807" max="13056" width="11.25" style="2"/>
-    <col min="13057" max="13057" width="28.125" style="2" customWidth="1"/>
-    <col min="13058" max="13058" width="11.25" style="2"/>
-    <col min="13059" max="13059" width="24.25" style="2" customWidth="1"/>
-    <col min="13060" max="13061" width="11.25" style="2"/>
-    <col min="13062" max="13062" width="35" style="2" customWidth="1"/>
-    <col min="13063" max="13312" width="11.25" style="2"/>
-    <col min="13313" max="13313" width="28.125" style="2" customWidth="1"/>
-    <col min="13314" max="13314" width="11.25" style="2"/>
-    <col min="13315" max="13315" width="24.25" style="2" customWidth="1"/>
-    <col min="13316" max="13317" width="11.25" style="2"/>
-    <col min="13318" max="13318" width="35" style="2" customWidth="1"/>
-    <col min="13319" max="13568" width="11.25" style="2"/>
-    <col min="13569" max="13569" width="28.125" style="2" customWidth="1"/>
-    <col min="13570" max="13570" width="11.25" style="2"/>
-    <col min="13571" max="13571" width="24.25" style="2" customWidth="1"/>
-    <col min="13572" max="13573" width="11.25" style="2"/>
-    <col min="13574" max="13574" width="35" style="2" customWidth="1"/>
-    <col min="13575" max="13824" width="11.25" style="2"/>
-    <col min="13825" max="13825" width="28.125" style="2" customWidth="1"/>
-    <col min="13826" max="13826" width="11.25" style="2"/>
-    <col min="13827" max="13827" width="24.25" style="2" customWidth="1"/>
-    <col min="13828" max="13829" width="11.25" style="2"/>
-    <col min="13830" max="13830" width="35" style="2" customWidth="1"/>
-    <col min="13831" max="14080" width="11.25" style="2"/>
-    <col min="14081" max="14081" width="28.125" style="2" customWidth="1"/>
-    <col min="14082" max="14082" width="11.25" style="2"/>
-    <col min="14083" max="14083" width="24.25" style="2" customWidth="1"/>
-    <col min="14084" max="14085" width="11.25" style="2"/>
-    <col min="14086" max="14086" width="35" style="2" customWidth="1"/>
-    <col min="14087" max="14336" width="11.25" style="2"/>
-    <col min="14337" max="14337" width="28.125" style="2" customWidth="1"/>
-    <col min="14338" max="14338" width="11.25" style="2"/>
-    <col min="14339" max="14339" width="24.25" style="2" customWidth="1"/>
-    <col min="14340" max="14341" width="11.25" style="2"/>
-    <col min="14342" max="14342" width="35" style="2" customWidth="1"/>
-    <col min="14343" max="14592" width="11.25" style="2"/>
-    <col min="14593" max="14593" width="28.125" style="2" customWidth="1"/>
-    <col min="14594" max="14594" width="11.25" style="2"/>
-    <col min="14595" max="14595" width="24.25" style="2" customWidth="1"/>
-    <col min="14596" max="14597" width="11.25" style="2"/>
-    <col min="14598" max="14598" width="35" style="2" customWidth="1"/>
-    <col min="14599" max="14848" width="11.25" style="2"/>
-    <col min="14849" max="14849" width="28.125" style="2" customWidth="1"/>
-    <col min="14850" max="14850" width="11.25" style="2"/>
-    <col min="14851" max="14851" width="24.25" style="2" customWidth="1"/>
-    <col min="14852" max="14853" width="11.25" style="2"/>
-    <col min="14854" max="14854" width="35" style="2" customWidth="1"/>
-    <col min="14855" max="15104" width="11.25" style="2"/>
-    <col min="15105" max="15105" width="28.125" style="2" customWidth="1"/>
-    <col min="15106" max="15106" width="11.25" style="2"/>
-    <col min="15107" max="15107" width="24.25" style="2" customWidth="1"/>
-    <col min="15108" max="15109" width="11.25" style="2"/>
-    <col min="15110" max="15110" width="35" style="2" customWidth="1"/>
-    <col min="15111" max="15360" width="11.25" style="2"/>
-    <col min="15361" max="15361" width="28.125" style="2" customWidth="1"/>
-    <col min="15362" max="15362" width="11.25" style="2"/>
-    <col min="15363" max="15363" width="24.25" style="2" customWidth="1"/>
-    <col min="15364" max="15365" width="11.25" style="2"/>
-    <col min="15366" max="15366" width="35" style="2" customWidth="1"/>
-    <col min="15367" max="15616" width="11.25" style="2"/>
-    <col min="15617" max="15617" width="28.125" style="2" customWidth="1"/>
-    <col min="15618" max="15618" width="11.25" style="2"/>
-    <col min="15619" max="15619" width="24.25" style="2" customWidth="1"/>
-    <col min="15620" max="15621" width="11.25" style="2"/>
-    <col min="15622" max="15622" width="35" style="2" customWidth="1"/>
-    <col min="15623" max="15872" width="11.25" style="2"/>
-    <col min="15873" max="15873" width="28.125" style="2" customWidth="1"/>
-    <col min="15874" max="15874" width="11.25" style="2"/>
-    <col min="15875" max="15875" width="24.25" style="2" customWidth="1"/>
-    <col min="15876" max="15877" width="11.25" style="2"/>
-    <col min="15878" max="15878" width="35" style="2" customWidth="1"/>
-    <col min="15879" max="16128" width="11.25" style="2"/>
-    <col min="16129" max="16129" width="28.125" style="2" customWidth="1"/>
-    <col min="16130" max="16130" width="11.25" style="2"/>
-    <col min="16131" max="16131" width="24.25" style="2" customWidth="1"/>
-    <col min="16132" max="16133" width="11.25" style="2"/>
-    <col min="16134" max="16134" width="35" style="2" customWidth="1"/>
-    <col min="16135" max="16384" width="11.25" style="2"/>
+    <col min="1" max="1" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="4"/>
+    <col min="5" max="5" width="35" style="5" customWidth="1"/>
+    <col min="6" max="255" width="11.25" style="2"/>
+    <col min="256" max="256" width="28.125" style="2" customWidth="1"/>
+    <col min="257" max="257" width="11.25" style="2"/>
+    <col min="258" max="258" width="24.25" style="2" customWidth="1"/>
+    <col min="259" max="260" width="11.25" style="2"/>
+    <col min="261" max="261" width="35" style="2" customWidth="1"/>
+    <col min="262" max="511" width="11.25" style="2"/>
+    <col min="512" max="512" width="28.125" style="2" customWidth="1"/>
+    <col min="513" max="513" width="11.25" style="2"/>
+    <col min="514" max="514" width="24.25" style="2" customWidth="1"/>
+    <col min="515" max="516" width="11.25" style="2"/>
+    <col min="517" max="517" width="35" style="2" customWidth="1"/>
+    <col min="518" max="767" width="11.25" style="2"/>
+    <col min="768" max="768" width="28.125" style="2" customWidth="1"/>
+    <col min="769" max="769" width="11.25" style="2"/>
+    <col min="770" max="770" width="24.25" style="2" customWidth="1"/>
+    <col min="771" max="772" width="11.25" style="2"/>
+    <col min="773" max="773" width="35" style="2" customWidth="1"/>
+    <col min="774" max="1023" width="11.25" style="2"/>
+    <col min="1024" max="1024" width="28.125" style="2" customWidth="1"/>
+    <col min="1025" max="1025" width="11.25" style="2"/>
+    <col min="1026" max="1026" width="24.25" style="2" customWidth="1"/>
+    <col min="1027" max="1028" width="11.25" style="2"/>
+    <col min="1029" max="1029" width="35" style="2" customWidth="1"/>
+    <col min="1030" max="1279" width="11.25" style="2"/>
+    <col min="1280" max="1280" width="28.125" style="2" customWidth="1"/>
+    <col min="1281" max="1281" width="11.25" style="2"/>
+    <col min="1282" max="1282" width="24.25" style="2" customWidth="1"/>
+    <col min="1283" max="1284" width="11.25" style="2"/>
+    <col min="1285" max="1285" width="35" style="2" customWidth="1"/>
+    <col min="1286" max="1535" width="11.25" style="2"/>
+    <col min="1536" max="1536" width="28.125" style="2" customWidth="1"/>
+    <col min="1537" max="1537" width="11.25" style="2"/>
+    <col min="1538" max="1538" width="24.25" style="2" customWidth="1"/>
+    <col min="1539" max="1540" width="11.25" style="2"/>
+    <col min="1541" max="1541" width="35" style="2" customWidth="1"/>
+    <col min="1542" max="1791" width="11.25" style="2"/>
+    <col min="1792" max="1792" width="28.125" style="2" customWidth="1"/>
+    <col min="1793" max="1793" width="11.25" style="2"/>
+    <col min="1794" max="1794" width="24.25" style="2" customWidth="1"/>
+    <col min="1795" max="1796" width="11.25" style="2"/>
+    <col min="1797" max="1797" width="35" style="2" customWidth="1"/>
+    <col min="1798" max="2047" width="11.25" style="2"/>
+    <col min="2048" max="2048" width="28.125" style="2" customWidth="1"/>
+    <col min="2049" max="2049" width="11.25" style="2"/>
+    <col min="2050" max="2050" width="24.25" style="2" customWidth="1"/>
+    <col min="2051" max="2052" width="11.25" style="2"/>
+    <col min="2053" max="2053" width="35" style="2" customWidth="1"/>
+    <col min="2054" max="2303" width="11.25" style="2"/>
+    <col min="2304" max="2304" width="28.125" style="2" customWidth="1"/>
+    <col min="2305" max="2305" width="11.25" style="2"/>
+    <col min="2306" max="2306" width="24.25" style="2" customWidth="1"/>
+    <col min="2307" max="2308" width="11.25" style="2"/>
+    <col min="2309" max="2309" width="35" style="2" customWidth="1"/>
+    <col min="2310" max="2559" width="11.25" style="2"/>
+    <col min="2560" max="2560" width="28.125" style="2" customWidth="1"/>
+    <col min="2561" max="2561" width="11.25" style="2"/>
+    <col min="2562" max="2562" width="24.25" style="2" customWidth="1"/>
+    <col min="2563" max="2564" width="11.25" style="2"/>
+    <col min="2565" max="2565" width="35" style="2" customWidth="1"/>
+    <col min="2566" max="2815" width="11.25" style="2"/>
+    <col min="2816" max="2816" width="28.125" style="2" customWidth="1"/>
+    <col min="2817" max="2817" width="11.25" style="2"/>
+    <col min="2818" max="2818" width="24.25" style="2" customWidth="1"/>
+    <col min="2819" max="2820" width="11.25" style="2"/>
+    <col min="2821" max="2821" width="35" style="2" customWidth="1"/>
+    <col min="2822" max="3071" width="11.25" style="2"/>
+    <col min="3072" max="3072" width="28.125" style="2" customWidth="1"/>
+    <col min="3073" max="3073" width="11.25" style="2"/>
+    <col min="3074" max="3074" width="24.25" style="2" customWidth="1"/>
+    <col min="3075" max="3076" width="11.25" style="2"/>
+    <col min="3077" max="3077" width="35" style="2" customWidth="1"/>
+    <col min="3078" max="3327" width="11.25" style="2"/>
+    <col min="3328" max="3328" width="28.125" style="2" customWidth="1"/>
+    <col min="3329" max="3329" width="11.25" style="2"/>
+    <col min="3330" max="3330" width="24.25" style="2" customWidth="1"/>
+    <col min="3331" max="3332" width="11.25" style="2"/>
+    <col min="3333" max="3333" width="35" style="2" customWidth="1"/>
+    <col min="3334" max="3583" width="11.25" style="2"/>
+    <col min="3584" max="3584" width="28.125" style="2" customWidth="1"/>
+    <col min="3585" max="3585" width="11.25" style="2"/>
+    <col min="3586" max="3586" width="24.25" style="2" customWidth="1"/>
+    <col min="3587" max="3588" width="11.25" style="2"/>
+    <col min="3589" max="3589" width="35" style="2" customWidth="1"/>
+    <col min="3590" max="3839" width="11.25" style="2"/>
+    <col min="3840" max="3840" width="28.125" style="2" customWidth="1"/>
+    <col min="3841" max="3841" width="11.25" style="2"/>
+    <col min="3842" max="3842" width="24.25" style="2" customWidth="1"/>
+    <col min="3843" max="3844" width="11.25" style="2"/>
+    <col min="3845" max="3845" width="35" style="2" customWidth="1"/>
+    <col min="3846" max="4095" width="11.25" style="2"/>
+    <col min="4096" max="4096" width="28.125" style="2" customWidth="1"/>
+    <col min="4097" max="4097" width="11.25" style="2"/>
+    <col min="4098" max="4098" width="24.25" style="2" customWidth="1"/>
+    <col min="4099" max="4100" width="11.25" style="2"/>
+    <col min="4101" max="4101" width="35" style="2" customWidth="1"/>
+    <col min="4102" max="4351" width="11.25" style="2"/>
+    <col min="4352" max="4352" width="28.125" style="2" customWidth="1"/>
+    <col min="4353" max="4353" width="11.25" style="2"/>
+    <col min="4354" max="4354" width="24.25" style="2" customWidth="1"/>
+    <col min="4355" max="4356" width="11.25" style="2"/>
+    <col min="4357" max="4357" width="35" style="2" customWidth="1"/>
+    <col min="4358" max="4607" width="11.25" style="2"/>
+    <col min="4608" max="4608" width="28.125" style="2" customWidth="1"/>
+    <col min="4609" max="4609" width="11.25" style="2"/>
+    <col min="4610" max="4610" width="24.25" style="2" customWidth="1"/>
+    <col min="4611" max="4612" width="11.25" style="2"/>
+    <col min="4613" max="4613" width="35" style="2" customWidth="1"/>
+    <col min="4614" max="4863" width="11.25" style="2"/>
+    <col min="4864" max="4864" width="28.125" style="2" customWidth="1"/>
+    <col min="4865" max="4865" width="11.25" style="2"/>
+    <col min="4866" max="4866" width="24.25" style="2" customWidth="1"/>
+    <col min="4867" max="4868" width="11.25" style="2"/>
+    <col min="4869" max="4869" width="35" style="2" customWidth="1"/>
+    <col min="4870" max="5119" width="11.25" style="2"/>
+    <col min="5120" max="5120" width="28.125" style="2" customWidth="1"/>
+    <col min="5121" max="5121" width="11.25" style="2"/>
+    <col min="5122" max="5122" width="24.25" style="2" customWidth="1"/>
+    <col min="5123" max="5124" width="11.25" style="2"/>
+    <col min="5125" max="5125" width="35" style="2" customWidth="1"/>
+    <col min="5126" max="5375" width="11.25" style="2"/>
+    <col min="5376" max="5376" width="28.125" style="2" customWidth="1"/>
+    <col min="5377" max="5377" width="11.25" style="2"/>
+    <col min="5378" max="5378" width="24.25" style="2" customWidth="1"/>
+    <col min="5379" max="5380" width="11.25" style="2"/>
+    <col min="5381" max="5381" width="35" style="2" customWidth="1"/>
+    <col min="5382" max="5631" width="11.25" style="2"/>
+    <col min="5632" max="5632" width="28.125" style="2" customWidth="1"/>
+    <col min="5633" max="5633" width="11.25" style="2"/>
+    <col min="5634" max="5634" width="24.25" style="2" customWidth="1"/>
+    <col min="5635" max="5636" width="11.25" style="2"/>
+    <col min="5637" max="5637" width="35" style="2" customWidth="1"/>
+    <col min="5638" max="5887" width="11.25" style="2"/>
+    <col min="5888" max="5888" width="28.125" style="2" customWidth="1"/>
+    <col min="5889" max="5889" width="11.25" style="2"/>
+    <col min="5890" max="5890" width="24.25" style="2" customWidth="1"/>
+    <col min="5891" max="5892" width="11.25" style="2"/>
+    <col min="5893" max="5893" width="35" style="2" customWidth="1"/>
+    <col min="5894" max="6143" width="11.25" style="2"/>
+    <col min="6144" max="6144" width="28.125" style="2" customWidth="1"/>
+    <col min="6145" max="6145" width="11.25" style="2"/>
+    <col min="6146" max="6146" width="24.25" style="2" customWidth="1"/>
+    <col min="6147" max="6148" width="11.25" style="2"/>
+    <col min="6149" max="6149" width="35" style="2" customWidth="1"/>
+    <col min="6150" max="6399" width="11.25" style="2"/>
+    <col min="6400" max="6400" width="28.125" style="2" customWidth="1"/>
+    <col min="6401" max="6401" width="11.25" style="2"/>
+    <col min="6402" max="6402" width="24.25" style="2" customWidth="1"/>
+    <col min="6403" max="6404" width="11.25" style="2"/>
+    <col min="6405" max="6405" width="35" style="2" customWidth="1"/>
+    <col min="6406" max="6655" width="11.25" style="2"/>
+    <col min="6656" max="6656" width="28.125" style="2" customWidth="1"/>
+    <col min="6657" max="6657" width="11.25" style="2"/>
+    <col min="6658" max="6658" width="24.25" style="2" customWidth="1"/>
+    <col min="6659" max="6660" width="11.25" style="2"/>
+    <col min="6661" max="6661" width="35" style="2" customWidth="1"/>
+    <col min="6662" max="6911" width="11.25" style="2"/>
+    <col min="6912" max="6912" width="28.125" style="2" customWidth="1"/>
+    <col min="6913" max="6913" width="11.25" style="2"/>
+    <col min="6914" max="6914" width="24.25" style="2" customWidth="1"/>
+    <col min="6915" max="6916" width="11.25" style="2"/>
+    <col min="6917" max="6917" width="35" style="2" customWidth="1"/>
+    <col min="6918" max="7167" width="11.25" style="2"/>
+    <col min="7168" max="7168" width="28.125" style="2" customWidth="1"/>
+    <col min="7169" max="7169" width="11.25" style="2"/>
+    <col min="7170" max="7170" width="24.25" style="2" customWidth="1"/>
+    <col min="7171" max="7172" width="11.25" style="2"/>
+    <col min="7173" max="7173" width="35" style="2" customWidth="1"/>
+    <col min="7174" max="7423" width="11.25" style="2"/>
+    <col min="7424" max="7424" width="28.125" style="2" customWidth="1"/>
+    <col min="7425" max="7425" width="11.25" style="2"/>
+    <col min="7426" max="7426" width="24.25" style="2" customWidth="1"/>
+    <col min="7427" max="7428" width="11.25" style="2"/>
+    <col min="7429" max="7429" width="35" style="2" customWidth="1"/>
+    <col min="7430" max="7679" width="11.25" style="2"/>
+    <col min="7680" max="7680" width="28.125" style="2" customWidth="1"/>
+    <col min="7681" max="7681" width="11.25" style="2"/>
+    <col min="7682" max="7682" width="24.25" style="2" customWidth="1"/>
+    <col min="7683" max="7684" width="11.25" style="2"/>
+    <col min="7685" max="7685" width="35" style="2" customWidth="1"/>
+    <col min="7686" max="7935" width="11.25" style="2"/>
+    <col min="7936" max="7936" width="28.125" style="2" customWidth="1"/>
+    <col min="7937" max="7937" width="11.25" style="2"/>
+    <col min="7938" max="7938" width="24.25" style="2" customWidth="1"/>
+    <col min="7939" max="7940" width="11.25" style="2"/>
+    <col min="7941" max="7941" width="35" style="2" customWidth="1"/>
+    <col min="7942" max="8191" width="11.25" style="2"/>
+    <col min="8192" max="8192" width="28.125" style="2" customWidth="1"/>
+    <col min="8193" max="8193" width="11.25" style="2"/>
+    <col min="8194" max="8194" width="24.25" style="2" customWidth="1"/>
+    <col min="8195" max="8196" width="11.25" style="2"/>
+    <col min="8197" max="8197" width="35" style="2" customWidth="1"/>
+    <col min="8198" max="8447" width="11.25" style="2"/>
+    <col min="8448" max="8448" width="28.125" style="2" customWidth="1"/>
+    <col min="8449" max="8449" width="11.25" style="2"/>
+    <col min="8450" max="8450" width="24.25" style="2" customWidth="1"/>
+    <col min="8451" max="8452" width="11.25" style="2"/>
+    <col min="8453" max="8453" width="35" style="2" customWidth="1"/>
+    <col min="8454" max="8703" width="11.25" style="2"/>
+    <col min="8704" max="8704" width="28.125" style="2" customWidth="1"/>
+    <col min="8705" max="8705" width="11.25" style="2"/>
+    <col min="8706" max="8706" width="24.25" style="2" customWidth="1"/>
+    <col min="8707" max="8708" width="11.25" style="2"/>
+    <col min="8709" max="8709" width="35" style="2" customWidth="1"/>
+    <col min="8710" max="8959" width="11.25" style="2"/>
+    <col min="8960" max="8960" width="28.125" style="2" customWidth="1"/>
+    <col min="8961" max="8961" width="11.25" style="2"/>
+    <col min="8962" max="8962" width="24.25" style="2" customWidth="1"/>
+    <col min="8963" max="8964" width="11.25" style="2"/>
+    <col min="8965" max="8965" width="35" style="2" customWidth="1"/>
+    <col min="8966" max="9215" width="11.25" style="2"/>
+    <col min="9216" max="9216" width="28.125" style="2" customWidth="1"/>
+    <col min="9217" max="9217" width="11.25" style="2"/>
+    <col min="9218" max="9218" width="24.25" style="2" customWidth="1"/>
+    <col min="9219" max="9220" width="11.25" style="2"/>
+    <col min="9221" max="9221" width="35" style="2" customWidth="1"/>
+    <col min="9222" max="9471" width="11.25" style="2"/>
+    <col min="9472" max="9472" width="28.125" style="2" customWidth="1"/>
+    <col min="9473" max="9473" width="11.25" style="2"/>
+    <col min="9474" max="9474" width="24.25" style="2" customWidth="1"/>
+    <col min="9475" max="9476" width="11.25" style="2"/>
+    <col min="9477" max="9477" width="35" style="2" customWidth="1"/>
+    <col min="9478" max="9727" width="11.25" style="2"/>
+    <col min="9728" max="9728" width="28.125" style="2" customWidth="1"/>
+    <col min="9729" max="9729" width="11.25" style="2"/>
+    <col min="9730" max="9730" width="24.25" style="2" customWidth="1"/>
+    <col min="9731" max="9732" width="11.25" style="2"/>
+    <col min="9733" max="9733" width="35" style="2" customWidth="1"/>
+    <col min="9734" max="9983" width="11.25" style="2"/>
+    <col min="9984" max="9984" width="28.125" style="2" customWidth="1"/>
+    <col min="9985" max="9985" width="11.25" style="2"/>
+    <col min="9986" max="9986" width="24.25" style="2" customWidth="1"/>
+    <col min="9987" max="9988" width="11.25" style="2"/>
+    <col min="9989" max="9989" width="35" style="2" customWidth="1"/>
+    <col min="9990" max="10239" width="11.25" style="2"/>
+    <col min="10240" max="10240" width="28.125" style="2" customWidth="1"/>
+    <col min="10241" max="10241" width="11.25" style="2"/>
+    <col min="10242" max="10242" width="24.25" style="2" customWidth="1"/>
+    <col min="10243" max="10244" width="11.25" style="2"/>
+    <col min="10245" max="10245" width="35" style="2" customWidth="1"/>
+    <col min="10246" max="10495" width="11.25" style="2"/>
+    <col min="10496" max="10496" width="28.125" style="2" customWidth="1"/>
+    <col min="10497" max="10497" width="11.25" style="2"/>
+    <col min="10498" max="10498" width="24.25" style="2" customWidth="1"/>
+    <col min="10499" max="10500" width="11.25" style="2"/>
+    <col min="10501" max="10501" width="35" style="2" customWidth="1"/>
+    <col min="10502" max="10751" width="11.25" style="2"/>
+    <col min="10752" max="10752" width="28.125" style="2" customWidth="1"/>
+    <col min="10753" max="10753" width="11.25" style="2"/>
+    <col min="10754" max="10754" width="24.25" style="2" customWidth="1"/>
+    <col min="10755" max="10756" width="11.25" style="2"/>
+    <col min="10757" max="10757" width="35" style="2" customWidth="1"/>
+    <col min="10758" max="11007" width="11.25" style="2"/>
+    <col min="11008" max="11008" width="28.125" style="2" customWidth="1"/>
+    <col min="11009" max="11009" width="11.25" style="2"/>
+    <col min="11010" max="11010" width="24.25" style="2" customWidth="1"/>
+    <col min="11011" max="11012" width="11.25" style="2"/>
+    <col min="11013" max="11013" width="35" style="2" customWidth="1"/>
+    <col min="11014" max="11263" width="11.25" style="2"/>
+    <col min="11264" max="11264" width="28.125" style="2" customWidth="1"/>
+    <col min="11265" max="11265" width="11.25" style="2"/>
+    <col min="11266" max="11266" width="24.25" style="2" customWidth="1"/>
+    <col min="11267" max="11268" width="11.25" style="2"/>
+    <col min="11269" max="11269" width="35" style="2" customWidth="1"/>
+    <col min="11270" max="11519" width="11.25" style="2"/>
+    <col min="11520" max="11520" width="28.125" style="2" customWidth="1"/>
+    <col min="11521" max="11521" width="11.25" style="2"/>
+    <col min="11522" max="11522" width="24.25" style="2" customWidth="1"/>
+    <col min="11523" max="11524" width="11.25" style="2"/>
+    <col min="11525" max="11525" width="35" style="2" customWidth="1"/>
+    <col min="11526" max="11775" width="11.25" style="2"/>
+    <col min="11776" max="11776" width="28.125" style="2" customWidth="1"/>
+    <col min="11777" max="11777" width="11.25" style="2"/>
+    <col min="11778" max="11778" width="24.25" style="2" customWidth="1"/>
+    <col min="11779" max="11780" width="11.25" style="2"/>
+    <col min="11781" max="11781" width="35" style="2" customWidth="1"/>
+    <col min="11782" max="12031" width="11.25" style="2"/>
+    <col min="12032" max="12032" width="28.125" style="2" customWidth="1"/>
+    <col min="12033" max="12033" width="11.25" style="2"/>
+    <col min="12034" max="12034" width="24.25" style="2" customWidth="1"/>
+    <col min="12035" max="12036" width="11.25" style="2"/>
+    <col min="12037" max="12037" width="35" style="2" customWidth="1"/>
+    <col min="12038" max="12287" width="11.25" style="2"/>
+    <col min="12288" max="12288" width="28.125" style="2" customWidth="1"/>
+    <col min="12289" max="12289" width="11.25" style="2"/>
+    <col min="12290" max="12290" width="24.25" style="2" customWidth="1"/>
+    <col min="12291" max="12292" width="11.25" style="2"/>
+    <col min="12293" max="12293" width="35" style="2" customWidth="1"/>
+    <col min="12294" max="12543" width="11.25" style="2"/>
+    <col min="12544" max="12544" width="28.125" style="2" customWidth="1"/>
+    <col min="12545" max="12545" width="11.25" style="2"/>
+    <col min="12546" max="12546" width="24.25" style="2" customWidth="1"/>
+    <col min="12547" max="12548" width="11.25" style="2"/>
+    <col min="12549" max="12549" width="35" style="2" customWidth="1"/>
+    <col min="12550" max="12799" width="11.25" style="2"/>
+    <col min="12800" max="12800" width="28.125" style="2" customWidth="1"/>
+    <col min="12801" max="12801" width="11.25" style="2"/>
+    <col min="12802" max="12802" width="24.25" style="2" customWidth="1"/>
+    <col min="12803" max="12804" width="11.25" style="2"/>
+    <col min="12805" max="12805" width="35" style="2" customWidth="1"/>
+    <col min="12806" max="13055" width="11.25" style="2"/>
+    <col min="13056" max="13056" width="28.125" style="2" customWidth="1"/>
+    <col min="13057" max="13057" width="11.25" style="2"/>
+    <col min="13058" max="13058" width="24.25" style="2" customWidth="1"/>
+    <col min="13059" max="13060" width="11.25" style="2"/>
+    <col min="13061" max="13061" width="35" style="2" customWidth="1"/>
+    <col min="13062" max="13311" width="11.25" style="2"/>
+    <col min="13312" max="13312" width="28.125" style="2" customWidth="1"/>
+    <col min="13313" max="13313" width="11.25" style="2"/>
+    <col min="13314" max="13314" width="24.25" style="2" customWidth="1"/>
+    <col min="13315" max="13316" width="11.25" style="2"/>
+    <col min="13317" max="13317" width="35" style="2" customWidth="1"/>
+    <col min="13318" max="13567" width="11.25" style="2"/>
+    <col min="13568" max="13568" width="28.125" style="2" customWidth="1"/>
+    <col min="13569" max="13569" width="11.25" style="2"/>
+    <col min="13570" max="13570" width="24.25" style="2" customWidth="1"/>
+    <col min="13571" max="13572" width="11.25" style="2"/>
+    <col min="13573" max="13573" width="35" style="2" customWidth="1"/>
+    <col min="13574" max="13823" width="11.25" style="2"/>
+    <col min="13824" max="13824" width="28.125" style="2" customWidth="1"/>
+    <col min="13825" max="13825" width="11.25" style="2"/>
+    <col min="13826" max="13826" width="24.25" style="2" customWidth="1"/>
+    <col min="13827" max="13828" width="11.25" style="2"/>
+    <col min="13829" max="13829" width="35" style="2" customWidth="1"/>
+    <col min="13830" max="14079" width="11.25" style="2"/>
+    <col min="14080" max="14080" width="28.125" style="2" customWidth="1"/>
+    <col min="14081" max="14081" width="11.25" style="2"/>
+    <col min="14082" max="14082" width="24.25" style="2" customWidth="1"/>
+    <col min="14083" max="14084" width="11.25" style="2"/>
+    <col min="14085" max="14085" width="35" style="2" customWidth="1"/>
+    <col min="14086" max="14335" width="11.25" style="2"/>
+    <col min="14336" max="14336" width="28.125" style="2" customWidth="1"/>
+    <col min="14337" max="14337" width="11.25" style="2"/>
+    <col min="14338" max="14338" width="24.25" style="2" customWidth="1"/>
+    <col min="14339" max="14340" width="11.25" style="2"/>
+    <col min="14341" max="14341" width="35" style="2" customWidth="1"/>
+    <col min="14342" max="14591" width="11.25" style="2"/>
+    <col min="14592" max="14592" width="28.125" style="2" customWidth="1"/>
+    <col min="14593" max="14593" width="11.25" style="2"/>
+    <col min="14594" max="14594" width="24.25" style="2" customWidth="1"/>
+    <col min="14595" max="14596" width="11.25" style="2"/>
+    <col min="14597" max="14597" width="35" style="2" customWidth="1"/>
+    <col min="14598" max="14847" width="11.25" style="2"/>
+    <col min="14848" max="14848" width="28.125" style="2" customWidth="1"/>
+    <col min="14849" max="14849" width="11.25" style="2"/>
+    <col min="14850" max="14850" width="24.25" style="2" customWidth="1"/>
+    <col min="14851" max="14852" width="11.25" style="2"/>
+    <col min="14853" max="14853" width="35" style="2" customWidth="1"/>
+    <col min="14854" max="15103" width="11.25" style="2"/>
+    <col min="15104" max="15104" width="28.125" style="2" customWidth="1"/>
+    <col min="15105" max="15105" width="11.25" style="2"/>
+    <col min="15106" max="15106" width="24.25" style="2" customWidth="1"/>
+    <col min="15107" max="15108" width="11.25" style="2"/>
+    <col min="15109" max="15109" width="35" style="2" customWidth="1"/>
+    <col min="15110" max="15359" width="11.25" style="2"/>
+    <col min="15360" max="15360" width="28.125" style="2" customWidth="1"/>
+    <col min="15361" max="15361" width="11.25" style="2"/>
+    <col min="15362" max="15362" width="24.25" style="2" customWidth="1"/>
+    <col min="15363" max="15364" width="11.25" style="2"/>
+    <col min="15365" max="15365" width="35" style="2" customWidth="1"/>
+    <col min="15366" max="15615" width="11.25" style="2"/>
+    <col min="15616" max="15616" width="28.125" style="2" customWidth="1"/>
+    <col min="15617" max="15617" width="11.25" style="2"/>
+    <col min="15618" max="15618" width="24.25" style="2" customWidth="1"/>
+    <col min="15619" max="15620" width="11.25" style="2"/>
+    <col min="15621" max="15621" width="35" style="2" customWidth="1"/>
+    <col min="15622" max="15871" width="11.25" style="2"/>
+    <col min="15872" max="15872" width="28.125" style="2" customWidth="1"/>
+    <col min="15873" max="15873" width="11.25" style="2"/>
+    <col min="15874" max="15874" width="24.25" style="2" customWidth="1"/>
+    <col min="15875" max="15876" width="11.25" style="2"/>
+    <col min="15877" max="15877" width="35" style="2" customWidth="1"/>
+    <col min="15878" max="16127" width="11.25" style="2"/>
+    <col min="16128" max="16128" width="28.125" style="2" customWidth="1"/>
+    <col min="16129" max="16129" width="11.25" style="2"/>
+    <col min="16130" max="16130" width="24.25" style="2" customWidth="1"/>
+    <col min="16131" max="16132" width="11.25" style="2"/>
+    <col min="16133" max="16133" width="35" style="2" customWidth="1"/>
+    <col min="16134" max="16384" width="11.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="87.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979C2438-991D-43BC-983E-08F6A84C5CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624DEE0-4EB8-4552-8C85-43292862CC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="画面" sheetId="2" r:id="rId1"/>
+    <sheet name="マップチップ" sheetId="1" r:id="rId2"/>
     <sheet name="map" sheetId="3" r:id="rId3"/>
+    <sheet name="フラグ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>map1.gif</t>
   </si>
@@ -257,6 +258,140 @@
   </si>
   <si>
     <t>NPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣2（ken2flag == true）を持っていて敵（map[][]の値が4）を倒したらfalseになる。</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣1（ken1flag == true）を持っていてブロック（map[][]の値が5）を壊したらfalseになる。</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueならブロックを表示する。</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueなら敵を表示する。</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ken1flag</t>
+  </si>
+  <si>
+    <t>ken2flag</t>
+  </si>
+  <si>
+    <t>trueなら剣1を持っている。</t>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueなら剣2を持っている。</t>
+    <rPh sb="6" eb="7">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ上の剣1（map[][]の値が7）の場所に来たらtrueになる。</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ上の剣2（map[][]の値が6）の場所に来たらtrueになる。</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ken1flagはfalseに戻る。</t>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９ｘ９マス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -365,16 +500,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>852236</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84723</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -404,8 +539,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="857250" y="152400"/>
-          <a:ext cx="4581525" cy="4276725"/>
+          <a:off x="852236" y="531394"/>
+          <a:ext cx="4606592" cy="5153025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3401,17 +3536,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89027EE2-6364-4B05-A3EC-330FF227CA20}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="11.25" style="2"/>
+    <col min="1" max="1" width="11.25" style="2"/>
+    <col min="2" max="10" width="6.625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.25" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3428,9 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E21D9-C9BC-482D-A067-1E4699D0B14F}">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3705,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
   <cols>
@@ -4193,4 +4343,89 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317542FF-42AF-4238-865D-8646A630071B}">
+  <dimension ref="B2:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C624DEE0-4EB8-4552-8C85-43292862CC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D918FA-90B6-441D-A2E1-C61881FFAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>map1.gif</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>charact1</t>
-  </si>
-  <si>
-    <t>自分を中心とした９ｘ９</t>
   </si>
   <si>
     <t>teki1</t>
@@ -394,12 +391,67 @@
     <t>９ｘ９マス</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>通れる？</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map[][]の値</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通れない。</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックが壊されてなければ（teki2 == true）通れない。</t>
+    <rPh sb="5" eb="6">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が倒されてなければ（teki1 == true）通れない。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,14 +482,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -465,7 +511,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,7 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3551,7 +3596,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3853,483 +3898,505 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="25.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.25" style="3" customWidth="1"/>
-    <col min="3" max="4" width="11.25" style="4"/>
-    <col min="5" max="5" width="35" style="5" customWidth="1"/>
-    <col min="6" max="255" width="11.25" style="2"/>
-    <col min="256" max="256" width="28.125" style="2" customWidth="1"/>
-    <col min="257" max="257" width="11.25" style="2"/>
-    <col min="258" max="258" width="24.25" style="2" customWidth="1"/>
-    <col min="259" max="260" width="11.25" style="2"/>
-    <col min="261" max="261" width="35" style="2" customWidth="1"/>
-    <col min="262" max="511" width="11.25" style="2"/>
-    <col min="512" max="512" width="28.125" style="2" customWidth="1"/>
-    <col min="513" max="513" width="11.25" style="2"/>
-    <col min="514" max="514" width="24.25" style="2" customWidth="1"/>
-    <col min="515" max="516" width="11.25" style="2"/>
-    <col min="517" max="517" width="35" style="2" customWidth="1"/>
-    <col min="518" max="767" width="11.25" style="2"/>
-    <col min="768" max="768" width="28.125" style="2" customWidth="1"/>
-    <col min="769" max="769" width="11.25" style="2"/>
-    <col min="770" max="770" width="24.25" style="2" customWidth="1"/>
-    <col min="771" max="772" width="11.25" style="2"/>
-    <col min="773" max="773" width="35" style="2" customWidth="1"/>
-    <col min="774" max="1023" width="11.25" style="2"/>
-    <col min="1024" max="1024" width="28.125" style="2" customWidth="1"/>
-    <col min="1025" max="1025" width="11.25" style="2"/>
-    <col min="1026" max="1026" width="24.25" style="2" customWidth="1"/>
-    <col min="1027" max="1028" width="11.25" style="2"/>
-    <col min="1029" max="1029" width="35" style="2" customWidth="1"/>
-    <col min="1030" max="1279" width="11.25" style="2"/>
-    <col min="1280" max="1280" width="28.125" style="2" customWidth="1"/>
-    <col min="1281" max="1281" width="11.25" style="2"/>
-    <col min="1282" max="1282" width="24.25" style="2" customWidth="1"/>
-    <col min="1283" max="1284" width="11.25" style="2"/>
-    <col min="1285" max="1285" width="35" style="2" customWidth="1"/>
-    <col min="1286" max="1535" width="11.25" style="2"/>
-    <col min="1536" max="1536" width="28.125" style="2" customWidth="1"/>
-    <col min="1537" max="1537" width="11.25" style="2"/>
-    <col min="1538" max="1538" width="24.25" style="2" customWidth="1"/>
-    <col min="1539" max="1540" width="11.25" style="2"/>
-    <col min="1541" max="1541" width="35" style="2" customWidth="1"/>
-    <col min="1542" max="1791" width="11.25" style="2"/>
-    <col min="1792" max="1792" width="28.125" style="2" customWidth="1"/>
-    <col min="1793" max="1793" width="11.25" style="2"/>
-    <col min="1794" max="1794" width="24.25" style="2" customWidth="1"/>
-    <col min="1795" max="1796" width="11.25" style="2"/>
-    <col min="1797" max="1797" width="35" style="2" customWidth="1"/>
-    <col min="1798" max="2047" width="11.25" style="2"/>
-    <col min="2048" max="2048" width="28.125" style="2" customWidth="1"/>
-    <col min="2049" max="2049" width="11.25" style="2"/>
-    <col min="2050" max="2050" width="24.25" style="2" customWidth="1"/>
-    <col min="2051" max="2052" width="11.25" style="2"/>
-    <col min="2053" max="2053" width="35" style="2" customWidth="1"/>
-    <col min="2054" max="2303" width="11.25" style="2"/>
-    <col min="2304" max="2304" width="28.125" style="2" customWidth="1"/>
-    <col min="2305" max="2305" width="11.25" style="2"/>
-    <col min="2306" max="2306" width="24.25" style="2" customWidth="1"/>
-    <col min="2307" max="2308" width="11.25" style="2"/>
-    <col min="2309" max="2309" width="35" style="2" customWidth="1"/>
-    <col min="2310" max="2559" width="11.25" style="2"/>
-    <col min="2560" max="2560" width="28.125" style="2" customWidth="1"/>
-    <col min="2561" max="2561" width="11.25" style="2"/>
-    <col min="2562" max="2562" width="24.25" style="2" customWidth="1"/>
-    <col min="2563" max="2564" width="11.25" style="2"/>
-    <col min="2565" max="2565" width="35" style="2" customWidth="1"/>
-    <col min="2566" max="2815" width="11.25" style="2"/>
-    <col min="2816" max="2816" width="28.125" style="2" customWidth="1"/>
-    <col min="2817" max="2817" width="11.25" style="2"/>
-    <col min="2818" max="2818" width="24.25" style="2" customWidth="1"/>
-    <col min="2819" max="2820" width="11.25" style="2"/>
-    <col min="2821" max="2821" width="35" style="2" customWidth="1"/>
-    <col min="2822" max="3071" width="11.25" style="2"/>
-    <col min="3072" max="3072" width="28.125" style="2" customWidth="1"/>
-    <col min="3073" max="3073" width="11.25" style="2"/>
-    <col min="3074" max="3074" width="24.25" style="2" customWidth="1"/>
-    <col min="3075" max="3076" width="11.25" style="2"/>
-    <col min="3077" max="3077" width="35" style="2" customWidth="1"/>
-    <col min="3078" max="3327" width="11.25" style="2"/>
-    <col min="3328" max="3328" width="28.125" style="2" customWidth="1"/>
-    <col min="3329" max="3329" width="11.25" style="2"/>
-    <col min="3330" max="3330" width="24.25" style="2" customWidth="1"/>
-    <col min="3331" max="3332" width="11.25" style="2"/>
-    <col min="3333" max="3333" width="35" style="2" customWidth="1"/>
-    <col min="3334" max="3583" width="11.25" style="2"/>
-    <col min="3584" max="3584" width="28.125" style="2" customWidth="1"/>
-    <col min="3585" max="3585" width="11.25" style="2"/>
-    <col min="3586" max="3586" width="24.25" style="2" customWidth="1"/>
-    <col min="3587" max="3588" width="11.25" style="2"/>
-    <col min="3589" max="3589" width="35" style="2" customWidth="1"/>
-    <col min="3590" max="3839" width="11.25" style="2"/>
-    <col min="3840" max="3840" width="28.125" style="2" customWidth="1"/>
-    <col min="3841" max="3841" width="11.25" style="2"/>
-    <col min="3842" max="3842" width="24.25" style="2" customWidth="1"/>
-    <col min="3843" max="3844" width="11.25" style="2"/>
-    <col min="3845" max="3845" width="35" style="2" customWidth="1"/>
-    <col min="3846" max="4095" width="11.25" style="2"/>
-    <col min="4096" max="4096" width="28.125" style="2" customWidth="1"/>
-    <col min="4097" max="4097" width="11.25" style="2"/>
-    <col min="4098" max="4098" width="24.25" style="2" customWidth="1"/>
-    <col min="4099" max="4100" width="11.25" style="2"/>
-    <col min="4101" max="4101" width="35" style="2" customWidth="1"/>
-    <col min="4102" max="4351" width="11.25" style="2"/>
-    <col min="4352" max="4352" width="28.125" style="2" customWidth="1"/>
-    <col min="4353" max="4353" width="11.25" style="2"/>
-    <col min="4354" max="4354" width="24.25" style="2" customWidth="1"/>
-    <col min="4355" max="4356" width="11.25" style="2"/>
-    <col min="4357" max="4357" width="35" style="2" customWidth="1"/>
-    <col min="4358" max="4607" width="11.25" style="2"/>
-    <col min="4608" max="4608" width="28.125" style="2" customWidth="1"/>
-    <col min="4609" max="4609" width="11.25" style="2"/>
-    <col min="4610" max="4610" width="24.25" style="2" customWidth="1"/>
-    <col min="4611" max="4612" width="11.25" style="2"/>
-    <col min="4613" max="4613" width="35" style="2" customWidth="1"/>
-    <col min="4614" max="4863" width="11.25" style="2"/>
-    <col min="4864" max="4864" width="28.125" style="2" customWidth="1"/>
-    <col min="4865" max="4865" width="11.25" style="2"/>
-    <col min="4866" max="4866" width="24.25" style="2" customWidth="1"/>
-    <col min="4867" max="4868" width="11.25" style="2"/>
-    <col min="4869" max="4869" width="35" style="2" customWidth="1"/>
-    <col min="4870" max="5119" width="11.25" style="2"/>
-    <col min="5120" max="5120" width="28.125" style="2" customWidth="1"/>
-    <col min="5121" max="5121" width="11.25" style="2"/>
-    <col min="5122" max="5122" width="24.25" style="2" customWidth="1"/>
-    <col min="5123" max="5124" width="11.25" style="2"/>
-    <col min="5125" max="5125" width="35" style="2" customWidth="1"/>
-    <col min="5126" max="5375" width="11.25" style="2"/>
-    <col min="5376" max="5376" width="28.125" style="2" customWidth="1"/>
-    <col min="5377" max="5377" width="11.25" style="2"/>
-    <col min="5378" max="5378" width="24.25" style="2" customWidth="1"/>
-    <col min="5379" max="5380" width="11.25" style="2"/>
-    <col min="5381" max="5381" width="35" style="2" customWidth="1"/>
-    <col min="5382" max="5631" width="11.25" style="2"/>
-    <col min="5632" max="5632" width="28.125" style="2" customWidth="1"/>
-    <col min="5633" max="5633" width="11.25" style="2"/>
-    <col min="5634" max="5634" width="24.25" style="2" customWidth="1"/>
-    <col min="5635" max="5636" width="11.25" style="2"/>
-    <col min="5637" max="5637" width="35" style="2" customWidth="1"/>
-    <col min="5638" max="5887" width="11.25" style="2"/>
-    <col min="5888" max="5888" width="28.125" style="2" customWidth="1"/>
-    <col min="5889" max="5889" width="11.25" style="2"/>
-    <col min="5890" max="5890" width="24.25" style="2" customWidth="1"/>
-    <col min="5891" max="5892" width="11.25" style="2"/>
-    <col min="5893" max="5893" width="35" style="2" customWidth="1"/>
-    <col min="5894" max="6143" width="11.25" style="2"/>
-    <col min="6144" max="6144" width="28.125" style="2" customWidth="1"/>
-    <col min="6145" max="6145" width="11.25" style="2"/>
-    <col min="6146" max="6146" width="24.25" style="2" customWidth="1"/>
-    <col min="6147" max="6148" width="11.25" style="2"/>
-    <col min="6149" max="6149" width="35" style="2" customWidth="1"/>
-    <col min="6150" max="6399" width="11.25" style="2"/>
-    <col min="6400" max="6400" width="28.125" style="2" customWidth="1"/>
-    <col min="6401" max="6401" width="11.25" style="2"/>
-    <col min="6402" max="6402" width="24.25" style="2" customWidth="1"/>
-    <col min="6403" max="6404" width="11.25" style="2"/>
-    <col min="6405" max="6405" width="35" style="2" customWidth="1"/>
-    <col min="6406" max="6655" width="11.25" style="2"/>
-    <col min="6656" max="6656" width="28.125" style="2" customWidth="1"/>
-    <col min="6657" max="6657" width="11.25" style="2"/>
-    <col min="6658" max="6658" width="24.25" style="2" customWidth="1"/>
-    <col min="6659" max="6660" width="11.25" style="2"/>
-    <col min="6661" max="6661" width="35" style="2" customWidth="1"/>
-    <col min="6662" max="6911" width="11.25" style="2"/>
-    <col min="6912" max="6912" width="28.125" style="2" customWidth="1"/>
-    <col min="6913" max="6913" width="11.25" style="2"/>
-    <col min="6914" max="6914" width="24.25" style="2" customWidth="1"/>
-    <col min="6915" max="6916" width="11.25" style="2"/>
-    <col min="6917" max="6917" width="35" style="2" customWidth="1"/>
-    <col min="6918" max="7167" width="11.25" style="2"/>
-    <col min="7168" max="7168" width="28.125" style="2" customWidth="1"/>
-    <col min="7169" max="7169" width="11.25" style="2"/>
-    <col min="7170" max="7170" width="24.25" style="2" customWidth="1"/>
-    <col min="7171" max="7172" width="11.25" style="2"/>
-    <col min="7173" max="7173" width="35" style="2" customWidth="1"/>
-    <col min="7174" max="7423" width="11.25" style="2"/>
-    <col min="7424" max="7424" width="28.125" style="2" customWidth="1"/>
-    <col min="7425" max="7425" width="11.25" style="2"/>
-    <col min="7426" max="7426" width="24.25" style="2" customWidth="1"/>
-    <col min="7427" max="7428" width="11.25" style="2"/>
-    <col min="7429" max="7429" width="35" style="2" customWidth="1"/>
-    <col min="7430" max="7679" width="11.25" style="2"/>
-    <col min="7680" max="7680" width="28.125" style="2" customWidth="1"/>
-    <col min="7681" max="7681" width="11.25" style="2"/>
-    <col min="7682" max="7682" width="24.25" style="2" customWidth="1"/>
-    <col min="7683" max="7684" width="11.25" style="2"/>
-    <col min="7685" max="7685" width="35" style="2" customWidth="1"/>
-    <col min="7686" max="7935" width="11.25" style="2"/>
-    <col min="7936" max="7936" width="28.125" style="2" customWidth="1"/>
-    <col min="7937" max="7937" width="11.25" style="2"/>
-    <col min="7938" max="7938" width="24.25" style="2" customWidth="1"/>
-    <col min="7939" max="7940" width="11.25" style="2"/>
-    <col min="7941" max="7941" width="35" style="2" customWidth="1"/>
-    <col min="7942" max="8191" width="11.25" style="2"/>
-    <col min="8192" max="8192" width="28.125" style="2" customWidth="1"/>
-    <col min="8193" max="8193" width="11.25" style="2"/>
-    <col min="8194" max="8194" width="24.25" style="2" customWidth="1"/>
-    <col min="8195" max="8196" width="11.25" style="2"/>
-    <col min="8197" max="8197" width="35" style="2" customWidth="1"/>
-    <col min="8198" max="8447" width="11.25" style="2"/>
-    <col min="8448" max="8448" width="28.125" style="2" customWidth="1"/>
-    <col min="8449" max="8449" width="11.25" style="2"/>
-    <col min="8450" max="8450" width="24.25" style="2" customWidth="1"/>
-    <col min="8451" max="8452" width="11.25" style="2"/>
-    <col min="8453" max="8453" width="35" style="2" customWidth="1"/>
-    <col min="8454" max="8703" width="11.25" style="2"/>
-    <col min="8704" max="8704" width="28.125" style="2" customWidth="1"/>
-    <col min="8705" max="8705" width="11.25" style="2"/>
-    <col min="8706" max="8706" width="24.25" style="2" customWidth="1"/>
-    <col min="8707" max="8708" width="11.25" style="2"/>
-    <col min="8709" max="8709" width="35" style="2" customWidth="1"/>
-    <col min="8710" max="8959" width="11.25" style="2"/>
-    <col min="8960" max="8960" width="28.125" style="2" customWidth="1"/>
-    <col min="8961" max="8961" width="11.25" style="2"/>
-    <col min="8962" max="8962" width="24.25" style="2" customWidth="1"/>
-    <col min="8963" max="8964" width="11.25" style="2"/>
-    <col min="8965" max="8965" width="35" style="2" customWidth="1"/>
-    <col min="8966" max="9215" width="11.25" style="2"/>
-    <col min="9216" max="9216" width="28.125" style="2" customWidth="1"/>
-    <col min="9217" max="9217" width="11.25" style="2"/>
-    <col min="9218" max="9218" width="24.25" style="2" customWidth="1"/>
-    <col min="9219" max="9220" width="11.25" style="2"/>
-    <col min="9221" max="9221" width="35" style="2" customWidth="1"/>
-    <col min="9222" max="9471" width="11.25" style="2"/>
-    <col min="9472" max="9472" width="28.125" style="2" customWidth="1"/>
-    <col min="9473" max="9473" width="11.25" style="2"/>
-    <col min="9474" max="9474" width="24.25" style="2" customWidth="1"/>
-    <col min="9475" max="9476" width="11.25" style="2"/>
-    <col min="9477" max="9477" width="35" style="2" customWidth="1"/>
-    <col min="9478" max="9727" width="11.25" style="2"/>
-    <col min="9728" max="9728" width="28.125" style="2" customWidth="1"/>
-    <col min="9729" max="9729" width="11.25" style="2"/>
-    <col min="9730" max="9730" width="24.25" style="2" customWidth="1"/>
-    <col min="9731" max="9732" width="11.25" style="2"/>
-    <col min="9733" max="9733" width="35" style="2" customWidth="1"/>
-    <col min="9734" max="9983" width="11.25" style="2"/>
-    <col min="9984" max="9984" width="28.125" style="2" customWidth="1"/>
-    <col min="9985" max="9985" width="11.25" style="2"/>
-    <col min="9986" max="9986" width="24.25" style="2" customWidth="1"/>
-    <col min="9987" max="9988" width="11.25" style="2"/>
-    <col min="9989" max="9989" width="35" style="2" customWidth="1"/>
-    <col min="9990" max="10239" width="11.25" style="2"/>
-    <col min="10240" max="10240" width="28.125" style="2" customWidth="1"/>
-    <col min="10241" max="10241" width="11.25" style="2"/>
-    <col min="10242" max="10242" width="24.25" style="2" customWidth="1"/>
-    <col min="10243" max="10244" width="11.25" style="2"/>
-    <col min="10245" max="10245" width="35" style="2" customWidth="1"/>
-    <col min="10246" max="10495" width="11.25" style="2"/>
-    <col min="10496" max="10496" width="28.125" style="2" customWidth="1"/>
-    <col min="10497" max="10497" width="11.25" style="2"/>
-    <col min="10498" max="10498" width="24.25" style="2" customWidth="1"/>
-    <col min="10499" max="10500" width="11.25" style="2"/>
-    <col min="10501" max="10501" width="35" style="2" customWidth="1"/>
-    <col min="10502" max="10751" width="11.25" style="2"/>
-    <col min="10752" max="10752" width="28.125" style="2" customWidth="1"/>
-    <col min="10753" max="10753" width="11.25" style="2"/>
-    <col min="10754" max="10754" width="24.25" style="2" customWidth="1"/>
-    <col min="10755" max="10756" width="11.25" style="2"/>
-    <col min="10757" max="10757" width="35" style="2" customWidth="1"/>
-    <col min="10758" max="11007" width="11.25" style="2"/>
-    <col min="11008" max="11008" width="28.125" style="2" customWidth="1"/>
-    <col min="11009" max="11009" width="11.25" style="2"/>
-    <col min="11010" max="11010" width="24.25" style="2" customWidth="1"/>
-    <col min="11011" max="11012" width="11.25" style="2"/>
-    <col min="11013" max="11013" width="35" style="2" customWidth="1"/>
-    <col min="11014" max="11263" width="11.25" style="2"/>
-    <col min="11264" max="11264" width="28.125" style="2" customWidth="1"/>
-    <col min="11265" max="11265" width="11.25" style="2"/>
-    <col min="11266" max="11266" width="24.25" style="2" customWidth="1"/>
-    <col min="11267" max="11268" width="11.25" style="2"/>
-    <col min="11269" max="11269" width="35" style="2" customWidth="1"/>
-    <col min="11270" max="11519" width="11.25" style="2"/>
-    <col min="11520" max="11520" width="28.125" style="2" customWidth="1"/>
-    <col min="11521" max="11521" width="11.25" style="2"/>
-    <col min="11522" max="11522" width="24.25" style="2" customWidth="1"/>
-    <col min="11523" max="11524" width="11.25" style="2"/>
-    <col min="11525" max="11525" width="35" style="2" customWidth="1"/>
-    <col min="11526" max="11775" width="11.25" style="2"/>
-    <col min="11776" max="11776" width="28.125" style="2" customWidth="1"/>
-    <col min="11777" max="11777" width="11.25" style="2"/>
-    <col min="11778" max="11778" width="24.25" style="2" customWidth="1"/>
-    <col min="11779" max="11780" width="11.25" style="2"/>
-    <col min="11781" max="11781" width="35" style="2" customWidth="1"/>
-    <col min="11782" max="12031" width="11.25" style="2"/>
-    <col min="12032" max="12032" width="28.125" style="2" customWidth="1"/>
-    <col min="12033" max="12033" width="11.25" style="2"/>
-    <col min="12034" max="12034" width="24.25" style="2" customWidth="1"/>
-    <col min="12035" max="12036" width="11.25" style="2"/>
-    <col min="12037" max="12037" width="35" style="2" customWidth="1"/>
-    <col min="12038" max="12287" width="11.25" style="2"/>
-    <col min="12288" max="12288" width="28.125" style="2" customWidth="1"/>
-    <col min="12289" max="12289" width="11.25" style="2"/>
-    <col min="12290" max="12290" width="24.25" style="2" customWidth="1"/>
-    <col min="12291" max="12292" width="11.25" style="2"/>
-    <col min="12293" max="12293" width="35" style="2" customWidth="1"/>
-    <col min="12294" max="12543" width="11.25" style="2"/>
-    <col min="12544" max="12544" width="28.125" style="2" customWidth="1"/>
-    <col min="12545" max="12545" width="11.25" style="2"/>
-    <col min="12546" max="12546" width="24.25" style="2" customWidth="1"/>
-    <col min="12547" max="12548" width="11.25" style="2"/>
-    <col min="12549" max="12549" width="35" style="2" customWidth="1"/>
-    <col min="12550" max="12799" width="11.25" style="2"/>
-    <col min="12800" max="12800" width="28.125" style="2" customWidth="1"/>
-    <col min="12801" max="12801" width="11.25" style="2"/>
-    <col min="12802" max="12802" width="24.25" style="2" customWidth="1"/>
-    <col min="12803" max="12804" width="11.25" style="2"/>
-    <col min="12805" max="12805" width="35" style="2" customWidth="1"/>
-    <col min="12806" max="13055" width="11.25" style="2"/>
-    <col min="13056" max="13056" width="28.125" style="2" customWidth="1"/>
-    <col min="13057" max="13057" width="11.25" style="2"/>
-    <col min="13058" max="13058" width="24.25" style="2" customWidth="1"/>
-    <col min="13059" max="13060" width="11.25" style="2"/>
-    <col min="13061" max="13061" width="35" style="2" customWidth="1"/>
-    <col min="13062" max="13311" width="11.25" style="2"/>
-    <col min="13312" max="13312" width="28.125" style="2" customWidth="1"/>
-    <col min="13313" max="13313" width="11.25" style="2"/>
-    <col min="13314" max="13314" width="24.25" style="2" customWidth="1"/>
-    <col min="13315" max="13316" width="11.25" style="2"/>
-    <col min="13317" max="13317" width="35" style="2" customWidth="1"/>
-    <col min="13318" max="13567" width="11.25" style="2"/>
-    <col min="13568" max="13568" width="28.125" style="2" customWidth="1"/>
-    <col min="13569" max="13569" width="11.25" style="2"/>
-    <col min="13570" max="13570" width="24.25" style="2" customWidth="1"/>
-    <col min="13571" max="13572" width="11.25" style="2"/>
-    <col min="13573" max="13573" width="35" style="2" customWidth="1"/>
-    <col min="13574" max="13823" width="11.25" style="2"/>
-    <col min="13824" max="13824" width="28.125" style="2" customWidth="1"/>
-    <col min="13825" max="13825" width="11.25" style="2"/>
-    <col min="13826" max="13826" width="24.25" style="2" customWidth="1"/>
-    <col min="13827" max="13828" width="11.25" style="2"/>
-    <col min="13829" max="13829" width="35" style="2" customWidth="1"/>
-    <col min="13830" max="14079" width="11.25" style="2"/>
-    <col min="14080" max="14080" width="28.125" style="2" customWidth="1"/>
-    <col min="14081" max="14081" width="11.25" style="2"/>
-    <col min="14082" max="14082" width="24.25" style="2" customWidth="1"/>
-    <col min="14083" max="14084" width="11.25" style="2"/>
-    <col min="14085" max="14085" width="35" style="2" customWidth="1"/>
-    <col min="14086" max="14335" width="11.25" style="2"/>
-    <col min="14336" max="14336" width="28.125" style="2" customWidth="1"/>
-    <col min="14337" max="14337" width="11.25" style="2"/>
-    <col min="14338" max="14338" width="24.25" style="2" customWidth="1"/>
-    <col min="14339" max="14340" width="11.25" style="2"/>
-    <col min="14341" max="14341" width="35" style="2" customWidth="1"/>
-    <col min="14342" max="14591" width="11.25" style="2"/>
-    <col min="14592" max="14592" width="28.125" style="2" customWidth="1"/>
-    <col min="14593" max="14593" width="11.25" style="2"/>
-    <col min="14594" max="14594" width="24.25" style="2" customWidth="1"/>
-    <col min="14595" max="14596" width="11.25" style="2"/>
-    <col min="14597" max="14597" width="35" style="2" customWidth="1"/>
-    <col min="14598" max="14847" width="11.25" style="2"/>
-    <col min="14848" max="14848" width="28.125" style="2" customWidth="1"/>
-    <col min="14849" max="14849" width="11.25" style="2"/>
-    <col min="14850" max="14850" width="24.25" style="2" customWidth="1"/>
-    <col min="14851" max="14852" width="11.25" style="2"/>
-    <col min="14853" max="14853" width="35" style="2" customWidth="1"/>
-    <col min="14854" max="15103" width="11.25" style="2"/>
-    <col min="15104" max="15104" width="28.125" style="2" customWidth="1"/>
-    <col min="15105" max="15105" width="11.25" style="2"/>
-    <col min="15106" max="15106" width="24.25" style="2" customWidth="1"/>
-    <col min="15107" max="15108" width="11.25" style="2"/>
-    <col min="15109" max="15109" width="35" style="2" customWidth="1"/>
-    <col min="15110" max="15359" width="11.25" style="2"/>
-    <col min="15360" max="15360" width="28.125" style="2" customWidth="1"/>
-    <col min="15361" max="15361" width="11.25" style="2"/>
-    <col min="15362" max="15362" width="24.25" style="2" customWidth="1"/>
-    <col min="15363" max="15364" width="11.25" style="2"/>
-    <col min="15365" max="15365" width="35" style="2" customWidth="1"/>
-    <col min="15366" max="15615" width="11.25" style="2"/>
-    <col min="15616" max="15616" width="28.125" style="2" customWidth="1"/>
-    <col min="15617" max="15617" width="11.25" style="2"/>
-    <col min="15618" max="15618" width="24.25" style="2" customWidth="1"/>
-    <col min="15619" max="15620" width="11.25" style="2"/>
-    <col min="15621" max="15621" width="35" style="2" customWidth="1"/>
-    <col min="15622" max="15871" width="11.25" style="2"/>
-    <col min="15872" max="15872" width="28.125" style="2" customWidth="1"/>
-    <col min="15873" max="15873" width="11.25" style="2"/>
-    <col min="15874" max="15874" width="24.25" style="2" customWidth="1"/>
-    <col min="15875" max="15876" width="11.25" style="2"/>
-    <col min="15877" max="15877" width="35" style="2" customWidth="1"/>
-    <col min="15878" max="16127" width="11.25" style="2"/>
-    <col min="16128" max="16128" width="28.125" style="2" customWidth="1"/>
-    <col min="16129" max="16129" width="11.25" style="2"/>
-    <col min="16130" max="16130" width="24.25" style="2" customWidth="1"/>
-    <col min="16131" max="16132" width="11.25" style="2"/>
-    <col min="16133" max="16133" width="35" style="2" customWidth="1"/>
-    <col min="16134" max="16384" width="11.25" style="2"/>
+    <col min="1" max="1" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="3"/>
+    <col min="5" max="5" width="39.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53" style="3" customWidth="1"/>
+    <col min="7" max="255" width="11.25" style="3"/>
+    <col min="256" max="256" width="28.125" style="3" customWidth="1"/>
+    <col min="257" max="257" width="11.25" style="3"/>
+    <col min="258" max="258" width="24.25" style="3" customWidth="1"/>
+    <col min="259" max="260" width="11.25" style="3"/>
+    <col min="261" max="261" width="35" style="3" customWidth="1"/>
+    <col min="262" max="511" width="11.25" style="3"/>
+    <col min="512" max="512" width="28.125" style="3" customWidth="1"/>
+    <col min="513" max="513" width="11.25" style="3"/>
+    <col min="514" max="514" width="24.25" style="3" customWidth="1"/>
+    <col min="515" max="516" width="11.25" style="3"/>
+    <col min="517" max="517" width="35" style="3" customWidth="1"/>
+    <col min="518" max="767" width="11.25" style="3"/>
+    <col min="768" max="768" width="28.125" style="3" customWidth="1"/>
+    <col min="769" max="769" width="11.25" style="3"/>
+    <col min="770" max="770" width="24.25" style="3" customWidth="1"/>
+    <col min="771" max="772" width="11.25" style="3"/>
+    <col min="773" max="773" width="35" style="3" customWidth="1"/>
+    <col min="774" max="1023" width="11.25" style="3"/>
+    <col min="1024" max="1024" width="28.125" style="3" customWidth="1"/>
+    <col min="1025" max="1025" width="11.25" style="3"/>
+    <col min="1026" max="1026" width="24.25" style="3" customWidth="1"/>
+    <col min="1027" max="1028" width="11.25" style="3"/>
+    <col min="1029" max="1029" width="35" style="3" customWidth="1"/>
+    <col min="1030" max="1279" width="11.25" style="3"/>
+    <col min="1280" max="1280" width="28.125" style="3" customWidth="1"/>
+    <col min="1281" max="1281" width="11.25" style="3"/>
+    <col min="1282" max="1282" width="24.25" style="3" customWidth="1"/>
+    <col min="1283" max="1284" width="11.25" style="3"/>
+    <col min="1285" max="1285" width="35" style="3" customWidth="1"/>
+    <col min="1286" max="1535" width="11.25" style="3"/>
+    <col min="1536" max="1536" width="28.125" style="3" customWidth="1"/>
+    <col min="1537" max="1537" width="11.25" style="3"/>
+    <col min="1538" max="1538" width="24.25" style="3" customWidth="1"/>
+    <col min="1539" max="1540" width="11.25" style="3"/>
+    <col min="1541" max="1541" width="35" style="3" customWidth="1"/>
+    <col min="1542" max="1791" width="11.25" style="3"/>
+    <col min="1792" max="1792" width="28.125" style="3" customWidth="1"/>
+    <col min="1793" max="1793" width="11.25" style="3"/>
+    <col min="1794" max="1794" width="24.25" style="3" customWidth="1"/>
+    <col min="1795" max="1796" width="11.25" style="3"/>
+    <col min="1797" max="1797" width="35" style="3" customWidth="1"/>
+    <col min="1798" max="2047" width="11.25" style="3"/>
+    <col min="2048" max="2048" width="28.125" style="3" customWidth="1"/>
+    <col min="2049" max="2049" width="11.25" style="3"/>
+    <col min="2050" max="2050" width="24.25" style="3" customWidth="1"/>
+    <col min="2051" max="2052" width="11.25" style="3"/>
+    <col min="2053" max="2053" width="35" style="3" customWidth="1"/>
+    <col min="2054" max="2303" width="11.25" style="3"/>
+    <col min="2304" max="2304" width="28.125" style="3" customWidth="1"/>
+    <col min="2305" max="2305" width="11.25" style="3"/>
+    <col min="2306" max="2306" width="24.25" style="3" customWidth="1"/>
+    <col min="2307" max="2308" width="11.25" style="3"/>
+    <col min="2309" max="2309" width="35" style="3" customWidth="1"/>
+    <col min="2310" max="2559" width="11.25" style="3"/>
+    <col min="2560" max="2560" width="28.125" style="3" customWidth="1"/>
+    <col min="2561" max="2561" width="11.25" style="3"/>
+    <col min="2562" max="2562" width="24.25" style="3" customWidth="1"/>
+    <col min="2563" max="2564" width="11.25" style="3"/>
+    <col min="2565" max="2565" width="35" style="3" customWidth="1"/>
+    <col min="2566" max="2815" width="11.25" style="3"/>
+    <col min="2816" max="2816" width="28.125" style="3" customWidth="1"/>
+    <col min="2817" max="2817" width="11.25" style="3"/>
+    <col min="2818" max="2818" width="24.25" style="3" customWidth="1"/>
+    <col min="2819" max="2820" width="11.25" style="3"/>
+    <col min="2821" max="2821" width="35" style="3" customWidth="1"/>
+    <col min="2822" max="3071" width="11.25" style="3"/>
+    <col min="3072" max="3072" width="28.125" style="3" customWidth="1"/>
+    <col min="3073" max="3073" width="11.25" style="3"/>
+    <col min="3074" max="3074" width="24.25" style="3" customWidth="1"/>
+    <col min="3075" max="3076" width="11.25" style="3"/>
+    <col min="3077" max="3077" width="35" style="3" customWidth="1"/>
+    <col min="3078" max="3327" width="11.25" style="3"/>
+    <col min="3328" max="3328" width="28.125" style="3" customWidth="1"/>
+    <col min="3329" max="3329" width="11.25" style="3"/>
+    <col min="3330" max="3330" width="24.25" style="3" customWidth="1"/>
+    <col min="3331" max="3332" width="11.25" style="3"/>
+    <col min="3333" max="3333" width="35" style="3" customWidth="1"/>
+    <col min="3334" max="3583" width="11.25" style="3"/>
+    <col min="3584" max="3584" width="28.125" style="3" customWidth="1"/>
+    <col min="3585" max="3585" width="11.25" style="3"/>
+    <col min="3586" max="3586" width="24.25" style="3" customWidth="1"/>
+    <col min="3587" max="3588" width="11.25" style="3"/>
+    <col min="3589" max="3589" width="35" style="3" customWidth="1"/>
+    <col min="3590" max="3839" width="11.25" style="3"/>
+    <col min="3840" max="3840" width="28.125" style="3" customWidth="1"/>
+    <col min="3841" max="3841" width="11.25" style="3"/>
+    <col min="3842" max="3842" width="24.25" style="3" customWidth="1"/>
+    <col min="3843" max="3844" width="11.25" style="3"/>
+    <col min="3845" max="3845" width="35" style="3" customWidth="1"/>
+    <col min="3846" max="4095" width="11.25" style="3"/>
+    <col min="4096" max="4096" width="28.125" style="3" customWidth="1"/>
+    <col min="4097" max="4097" width="11.25" style="3"/>
+    <col min="4098" max="4098" width="24.25" style="3" customWidth="1"/>
+    <col min="4099" max="4100" width="11.25" style="3"/>
+    <col min="4101" max="4101" width="35" style="3" customWidth="1"/>
+    <col min="4102" max="4351" width="11.25" style="3"/>
+    <col min="4352" max="4352" width="28.125" style="3" customWidth="1"/>
+    <col min="4353" max="4353" width="11.25" style="3"/>
+    <col min="4354" max="4354" width="24.25" style="3" customWidth="1"/>
+    <col min="4355" max="4356" width="11.25" style="3"/>
+    <col min="4357" max="4357" width="35" style="3" customWidth="1"/>
+    <col min="4358" max="4607" width="11.25" style="3"/>
+    <col min="4608" max="4608" width="28.125" style="3" customWidth="1"/>
+    <col min="4609" max="4609" width="11.25" style="3"/>
+    <col min="4610" max="4610" width="24.25" style="3" customWidth="1"/>
+    <col min="4611" max="4612" width="11.25" style="3"/>
+    <col min="4613" max="4613" width="35" style="3" customWidth="1"/>
+    <col min="4614" max="4863" width="11.25" style="3"/>
+    <col min="4864" max="4864" width="28.125" style="3" customWidth="1"/>
+    <col min="4865" max="4865" width="11.25" style="3"/>
+    <col min="4866" max="4866" width="24.25" style="3" customWidth="1"/>
+    <col min="4867" max="4868" width="11.25" style="3"/>
+    <col min="4869" max="4869" width="35" style="3" customWidth="1"/>
+    <col min="4870" max="5119" width="11.25" style="3"/>
+    <col min="5120" max="5120" width="28.125" style="3" customWidth="1"/>
+    <col min="5121" max="5121" width="11.25" style="3"/>
+    <col min="5122" max="5122" width="24.25" style="3" customWidth="1"/>
+    <col min="5123" max="5124" width="11.25" style="3"/>
+    <col min="5125" max="5125" width="35" style="3" customWidth="1"/>
+    <col min="5126" max="5375" width="11.25" style="3"/>
+    <col min="5376" max="5376" width="28.125" style="3" customWidth="1"/>
+    <col min="5377" max="5377" width="11.25" style="3"/>
+    <col min="5378" max="5378" width="24.25" style="3" customWidth="1"/>
+    <col min="5379" max="5380" width="11.25" style="3"/>
+    <col min="5381" max="5381" width="35" style="3" customWidth="1"/>
+    <col min="5382" max="5631" width="11.25" style="3"/>
+    <col min="5632" max="5632" width="28.125" style="3" customWidth="1"/>
+    <col min="5633" max="5633" width="11.25" style="3"/>
+    <col min="5634" max="5634" width="24.25" style="3" customWidth="1"/>
+    <col min="5635" max="5636" width="11.25" style="3"/>
+    <col min="5637" max="5637" width="35" style="3" customWidth="1"/>
+    <col min="5638" max="5887" width="11.25" style="3"/>
+    <col min="5888" max="5888" width="28.125" style="3" customWidth="1"/>
+    <col min="5889" max="5889" width="11.25" style="3"/>
+    <col min="5890" max="5890" width="24.25" style="3" customWidth="1"/>
+    <col min="5891" max="5892" width="11.25" style="3"/>
+    <col min="5893" max="5893" width="35" style="3" customWidth="1"/>
+    <col min="5894" max="6143" width="11.25" style="3"/>
+    <col min="6144" max="6144" width="28.125" style="3" customWidth="1"/>
+    <col min="6145" max="6145" width="11.25" style="3"/>
+    <col min="6146" max="6146" width="24.25" style="3" customWidth="1"/>
+    <col min="6147" max="6148" width="11.25" style="3"/>
+    <col min="6149" max="6149" width="35" style="3" customWidth="1"/>
+    <col min="6150" max="6399" width="11.25" style="3"/>
+    <col min="6400" max="6400" width="28.125" style="3" customWidth="1"/>
+    <col min="6401" max="6401" width="11.25" style="3"/>
+    <col min="6402" max="6402" width="24.25" style="3" customWidth="1"/>
+    <col min="6403" max="6404" width="11.25" style="3"/>
+    <col min="6405" max="6405" width="35" style="3" customWidth="1"/>
+    <col min="6406" max="6655" width="11.25" style="3"/>
+    <col min="6656" max="6656" width="28.125" style="3" customWidth="1"/>
+    <col min="6657" max="6657" width="11.25" style="3"/>
+    <col min="6658" max="6658" width="24.25" style="3" customWidth="1"/>
+    <col min="6659" max="6660" width="11.25" style="3"/>
+    <col min="6661" max="6661" width="35" style="3" customWidth="1"/>
+    <col min="6662" max="6911" width="11.25" style="3"/>
+    <col min="6912" max="6912" width="28.125" style="3" customWidth="1"/>
+    <col min="6913" max="6913" width="11.25" style="3"/>
+    <col min="6914" max="6914" width="24.25" style="3" customWidth="1"/>
+    <col min="6915" max="6916" width="11.25" style="3"/>
+    <col min="6917" max="6917" width="35" style="3" customWidth="1"/>
+    <col min="6918" max="7167" width="11.25" style="3"/>
+    <col min="7168" max="7168" width="28.125" style="3" customWidth="1"/>
+    <col min="7169" max="7169" width="11.25" style="3"/>
+    <col min="7170" max="7170" width="24.25" style="3" customWidth="1"/>
+    <col min="7171" max="7172" width="11.25" style="3"/>
+    <col min="7173" max="7173" width="35" style="3" customWidth="1"/>
+    <col min="7174" max="7423" width="11.25" style="3"/>
+    <col min="7424" max="7424" width="28.125" style="3" customWidth="1"/>
+    <col min="7425" max="7425" width="11.25" style="3"/>
+    <col min="7426" max="7426" width="24.25" style="3" customWidth="1"/>
+    <col min="7427" max="7428" width="11.25" style="3"/>
+    <col min="7429" max="7429" width="35" style="3" customWidth="1"/>
+    <col min="7430" max="7679" width="11.25" style="3"/>
+    <col min="7680" max="7680" width="28.125" style="3" customWidth="1"/>
+    <col min="7681" max="7681" width="11.25" style="3"/>
+    <col min="7682" max="7682" width="24.25" style="3" customWidth="1"/>
+    <col min="7683" max="7684" width="11.25" style="3"/>
+    <col min="7685" max="7685" width="35" style="3" customWidth="1"/>
+    <col min="7686" max="7935" width="11.25" style="3"/>
+    <col min="7936" max="7936" width="28.125" style="3" customWidth="1"/>
+    <col min="7937" max="7937" width="11.25" style="3"/>
+    <col min="7938" max="7938" width="24.25" style="3" customWidth="1"/>
+    <col min="7939" max="7940" width="11.25" style="3"/>
+    <col min="7941" max="7941" width="35" style="3" customWidth="1"/>
+    <col min="7942" max="8191" width="11.25" style="3"/>
+    <col min="8192" max="8192" width="28.125" style="3" customWidth="1"/>
+    <col min="8193" max="8193" width="11.25" style="3"/>
+    <col min="8194" max="8194" width="24.25" style="3" customWidth="1"/>
+    <col min="8195" max="8196" width="11.25" style="3"/>
+    <col min="8197" max="8197" width="35" style="3" customWidth="1"/>
+    <col min="8198" max="8447" width="11.25" style="3"/>
+    <col min="8448" max="8448" width="28.125" style="3" customWidth="1"/>
+    <col min="8449" max="8449" width="11.25" style="3"/>
+    <col min="8450" max="8450" width="24.25" style="3" customWidth="1"/>
+    <col min="8451" max="8452" width="11.25" style="3"/>
+    <col min="8453" max="8453" width="35" style="3" customWidth="1"/>
+    <col min="8454" max="8703" width="11.25" style="3"/>
+    <col min="8704" max="8704" width="28.125" style="3" customWidth="1"/>
+    <col min="8705" max="8705" width="11.25" style="3"/>
+    <col min="8706" max="8706" width="24.25" style="3" customWidth="1"/>
+    <col min="8707" max="8708" width="11.25" style="3"/>
+    <col min="8709" max="8709" width="35" style="3" customWidth="1"/>
+    <col min="8710" max="8959" width="11.25" style="3"/>
+    <col min="8960" max="8960" width="28.125" style="3" customWidth="1"/>
+    <col min="8961" max="8961" width="11.25" style="3"/>
+    <col min="8962" max="8962" width="24.25" style="3" customWidth="1"/>
+    <col min="8963" max="8964" width="11.25" style="3"/>
+    <col min="8965" max="8965" width="35" style="3" customWidth="1"/>
+    <col min="8966" max="9215" width="11.25" style="3"/>
+    <col min="9216" max="9216" width="28.125" style="3" customWidth="1"/>
+    <col min="9217" max="9217" width="11.25" style="3"/>
+    <col min="9218" max="9218" width="24.25" style="3" customWidth="1"/>
+    <col min="9219" max="9220" width="11.25" style="3"/>
+    <col min="9221" max="9221" width="35" style="3" customWidth="1"/>
+    <col min="9222" max="9471" width="11.25" style="3"/>
+    <col min="9472" max="9472" width="28.125" style="3" customWidth="1"/>
+    <col min="9473" max="9473" width="11.25" style="3"/>
+    <col min="9474" max="9474" width="24.25" style="3" customWidth="1"/>
+    <col min="9475" max="9476" width="11.25" style="3"/>
+    <col min="9477" max="9477" width="35" style="3" customWidth="1"/>
+    <col min="9478" max="9727" width="11.25" style="3"/>
+    <col min="9728" max="9728" width="28.125" style="3" customWidth="1"/>
+    <col min="9729" max="9729" width="11.25" style="3"/>
+    <col min="9730" max="9730" width="24.25" style="3" customWidth="1"/>
+    <col min="9731" max="9732" width="11.25" style="3"/>
+    <col min="9733" max="9733" width="35" style="3" customWidth="1"/>
+    <col min="9734" max="9983" width="11.25" style="3"/>
+    <col min="9984" max="9984" width="28.125" style="3" customWidth="1"/>
+    <col min="9985" max="9985" width="11.25" style="3"/>
+    <col min="9986" max="9986" width="24.25" style="3" customWidth="1"/>
+    <col min="9987" max="9988" width="11.25" style="3"/>
+    <col min="9989" max="9989" width="35" style="3" customWidth="1"/>
+    <col min="9990" max="10239" width="11.25" style="3"/>
+    <col min="10240" max="10240" width="28.125" style="3" customWidth="1"/>
+    <col min="10241" max="10241" width="11.25" style="3"/>
+    <col min="10242" max="10242" width="24.25" style="3" customWidth="1"/>
+    <col min="10243" max="10244" width="11.25" style="3"/>
+    <col min="10245" max="10245" width="35" style="3" customWidth="1"/>
+    <col min="10246" max="10495" width="11.25" style="3"/>
+    <col min="10496" max="10496" width="28.125" style="3" customWidth="1"/>
+    <col min="10497" max="10497" width="11.25" style="3"/>
+    <col min="10498" max="10498" width="24.25" style="3" customWidth="1"/>
+    <col min="10499" max="10500" width="11.25" style="3"/>
+    <col min="10501" max="10501" width="35" style="3" customWidth="1"/>
+    <col min="10502" max="10751" width="11.25" style="3"/>
+    <col min="10752" max="10752" width="28.125" style="3" customWidth="1"/>
+    <col min="10753" max="10753" width="11.25" style="3"/>
+    <col min="10754" max="10754" width="24.25" style="3" customWidth="1"/>
+    <col min="10755" max="10756" width="11.25" style="3"/>
+    <col min="10757" max="10757" width="35" style="3" customWidth="1"/>
+    <col min="10758" max="11007" width="11.25" style="3"/>
+    <col min="11008" max="11008" width="28.125" style="3" customWidth="1"/>
+    <col min="11009" max="11009" width="11.25" style="3"/>
+    <col min="11010" max="11010" width="24.25" style="3" customWidth="1"/>
+    <col min="11011" max="11012" width="11.25" style="3"/>
+    <col min="11013" max="11013" width="35" style="3" customWidth="1"/>
+    <col min="11014" max="11263" width="11.25" style="3"/>
+    <col min="11264" max="11264" width="28.125" style="3" customWidth="1"/>
+    <col min="11265" max="11265" width="11.25" style="3"/>
+    <col min="11266" max="11266" width="24.25" style="3" customWidth="1"/>
+    <col min="11267" max="11268" width="11.25" style="3"/>
+    <col min="11269" max="11269" width="35" style="3" customWidth="1"/>
+    <col min="11270" max="11519" width="11.25" style="3"/>
+    <col min="11520" max="11520" width="28.125" style="3" customWidth="1"/>
+    <col min="11521" max="11521" width="11.25" style="3"/>
+    <col min="11522" max="11522" width="24.25" style="3" customWidth="1"/>
+    <col min="11523" max="11524" width="11.25" style="3"/>
+    <col min="11525" max="11525" width="35" style="3" customWidth="1"/>
+    <col min="11526" max="11775" width="11.25" style="3"/>
+    <col min="11776" max="11776" width="28.125" style="3" customWidth="1"/>
+    <col min="11777" max="11777" width="11.25" style="3"/>
+    <col min="11778" max="11778" width="24.25" style="3" customWidth="1"/>
+    <col min="11779" max="11780" width="11.25" style="3"/>
+    <col min="11781" max="11781" width="35" style="3" customWidth="1"/>
+    <col min="11782" max="12031" width="11.25" style="3"/>
+    <col min="12032" max="12032" width="28.125" style="3" customWidth="1"/>
+    <col min="12033" max="12033" width="11.25" style="3"/>
+    <col min="12034" max="12034" width="24.25" style="3" customWidth="1"/>
+    <col min="12035" max="12036" width="11.25" style="3"/>
+    <col min="12037" max="12037" width="35" style="3" customWidth="1"/>
+    <col min="12038" max="12287" width="11.25" style="3"/>
+    <col min="12288" max="12288" width="28.125" style="3" customWidth="1"/>
+    <col min="12289" max="12289" width="11.25" style="3"/>
+    <col min="12290" max="12290" width="24.25" style="3" customWidth="1"/>
+    <col min="12291" max="12292" width="11.25" style="3"/>
+    <col min="12293" max="12293" width="35" style="3" customWidth="1"/>
+    <col min="12294" max="12543" width="11.25" style="3"/>
+    <col min="12544" max="12544" width="28.125" style="3" customWidth="1"/>
+    <col min="12545" max="12545" width="11.25" style="3"/>
+    <col min="12546" max="12546" width="24.25" style="3" customWidth="1"/>
+    <col min="12547" max="12548" width="11.25" style="3"/>
+    <col min="12549" max="12549" width="35" style="3" customWidth="1"/>
+    <col min="12550" max="12799" width="11.25" style="3"/>
+    <col min="12800" max="12800" width="28.125" style="3" customWidth="1"/>
+    <col min="12801" max="12801" width="11.25" style="3"/>
+    <col min="12802" max="12802" width="24.25" style="3" customWidth="1"/>
+    <col min="12803" max="12804" width="11.25" style="3"/>
+    <col min="12805" max="12805" width="35" style="3" customWidth="1"/>
+    <col min="12806" max="13055" width="11.25" style="3"/>
+    <col min="13056" max="13056" width="28.125" style="3" customWidth="1"/>
+    <col min="13057" max="13057" width="11.25" style="3"/>
+    <col min="13058" max="13058" width="24.25" style="3" customWidth="1"/>
+    <col min="13059" max="13060" width="11.25" style="3"/>
+    <col min="13061" max="13061" width="35" style="3" customWidth="1"/>
+    <col min="13062" max="13311" width="11.25" style="3"/>
+    <col min="13312" max="13312" width="28.125" style="3" customWidth="1"/>
+    <col min="13313" max="13313" width="11.25" style="3"/>
+    <col min="13314" max="13314" width="24.25" style="3" customWidth="1"/>
+    <col min="13315" max="13316" width="11.25" style="3"/>
+    <col min="13317" max="13317" width="35" style="3" customWidth="1"/>
+    <col min="13318" max="13567" width="11.25" style="3"/>
+    <col min="13568" max="13568" width="28.125" style="3" customWidth="1"/>
+    <col min="13569" max="13569" width="11.25" style="3"/>
+    <col min="13570" max="13570" width="24.25" style="3" customWidth="1"/>
+    <col min="13571" max="13572" width="11.25" style="3"/>
+    <col min="13573" max="13573" width="35" style="3" customWidth="1"/>
+    <col min="13574" max="13823" width="11.25" style="3"/>
+    <col min="13824" max="13824" width="28.125" style="3" customWidth="1"/>
+    <col min="13825" max="13825" width="11.25" style="3"/>
+    <col min="13826" max="13826" width="24.25" style="3" customWidth="1"/>
+    <col min="13827" max="13828" width="11.25" style="3"/>
+    <col min="13829" max="13829" width="35" style="3" customWidth="1"/>
+    <col min="13830" max="14079" width="11.25" style="3"/>
+    <col min="14080" max="14080" width="28.125" style="3" customWidth="1"/>
+    <col min="14081" max="14081" width="11.25" style="3"/>
+    <col min="14082" max="14082" width="24.25" style="3" customWidth="1"/>
+    <col min="14083" max="14084" width="11.25" style="3"/>
+    <col min="14085" max="14085" width="35" style="3" customWidth="1"/>
+    <col min="14086" max="14335" width="11.25" style="3"/>
+    <col min="14336" max="14336" width="28.125" style="3" customWidth="1"/>
+    <col min="14337" max="14337" width="11.25" style="3"/>
+    <col min="14338" max="14338" width="24.25" style="3" customWidth="1"/>
+    <col min="14339" max="14340" width="11.25" style="3"/>
+    <col min="14341" max="14341" width="35" style="3" customWidth="1"/>
+    <col min="14342" max="14591" width="11.25" style="3"/>
+    <col min="14592" max="14592" width="28.125" style="3" customWidth="1"/>
+    <col min="14593" max="14593" width="11.25" style="3"/>
+    <col min="14594" max="14594" width="24.25" style="3" customWidth="1"/>
+    <col min="14595" max="14596" width="11.25" style="3"/>
+    <col min="14597" max="14597" width="35" style="3" customWidth="1"/>
+    <col min="14598" max="14847" width="11.25" style="3"/>
+    <col min="14848" max="14848" width="28.125" style="3" customWidth="1"/>
+    <col min="14849" max="14849" width="11.25" style="3"/>
+    <col min="14850" max="14850" width="24.25" style="3" customWidth="1"/>
+    <col min="14851" max="14852" width="11.25" style="3"/>
+    <col min="14853" max="14853" width="35" style="3" customWidth="1"/>
+    <col min="14854" max="15103" width="11.25" style="3"/>
+    <col min="15104" max="15104" width="28.125" style="3" customWidth="1"/>
+    <col min="15105" max="15105" width="11.25" style="3"/>
+    <col min="15106" max="15106" width="24.25" style="3" customWidth="1"/>
+    <col min="15107" max="15108" width="11.25" style="3"/>
+    <col min="15109" max="15109" width="35" style="3" customWidth="1"/>
+    <col min="15110" max="15359" width="11.25" style="3"/>
+    <col min="15360" max="15360" width="28.125" style="3" customWidth="1"/>
+    <col min="15361" max="15361" width="11.25" style="3"/>
+    <col min="15362" max="15362" width="24.25" style="3" customWidth="1"/>
+    <col min="15363" max="15364" width="11.25" style="3"/>
+    <col min="15365" max="15365" width="35" style="3" customWidth="1"/>
+    <col min="15366" max="15615" width="11.25" style="3"/>
+    <col min="15616" max="15616" width="28.125" style="3" customWidth="1"/>
+    <col min="15617" max="15617" width="11.25" style="3"/>
+    <col min="15618" max="15618" width="24.25" style="3" customWidth="1"/>
+    <col min="15619" max="15620" width="11.25" style="3"/>
+    <col min="15621" max="15621" width="35" style="3" customWidth="1"/>
+    <col min="15622" max="15871" width="11.25" style="3"/>
+    <col min="15872" max="15872" width="28.125" style="3" customWidth="1"/>
+    <col min="15873" max="15873" width="11.25" style="3"/>
+    <col min="15874" max="15874" width="24.25" style="3" customWidth="1"/>
+    <col min="15875" max="15876" width="11.25" style="3"/>
+    <col min="15877" max="15877" width="35" style="3" customWidth="1"/>
+    <col min="15878" max="16127" width="11.25" style="3"/>
+    <col min="16128" max="16128" width="28.125" style="3" customWidth="1"/>
+    <col min="16129" max="16129" width="11.25" style="3"/>
+    <col min="16130" max="16130" width="24.25" style="3" customWidth="1"/>
+    <col min="16131" max="16132" width="11.25" style="3"/>
+    <col min="16133" max="16133" width="35" style="3" customWidth="1"/>
+    <col min="16134" max="16384" width="11.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="F7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="10" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.5">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317542FF-42AF-4238-865D-8646A630071B}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4360,68 +4427,68 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D918FA-90B6-441D-A2E1-C61881FFAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6E39A-8EE7-4338-89A7-999467D24053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -543,90 +543,46 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>852236</xdr:colOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>10026</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>84723</xdr:colOff>
+      <xdr:colOff>94667</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB367FAC-0D42-48DE-B523-47DD4F51AF65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="852236" y="531394"/>
-          <a:ext cx="4606592" cy="5153025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-                <a:srcRect/>
-                <a:stretch>
-                  <a:fillRect/>
-                </a:stretch>
-              </a:blipFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="808080"/>
-              </a:solidFill>
-              <a:round/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
+      <xdr:rowOff>13639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE094803-52B0-0921-8A41-D866050C0815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="523875"/>
+          <a:ext cx="4666667" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3583,8 +3539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89027EE2-6364-4B05-A3EC-330FF227CA20}">
   <dimension ref="B2:B14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3900,7 +3856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>

--- a/RPG1.xlsx
+++ b/RPG1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junda\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6E39A-8EE7-4338-89A7-999467D24053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7689A73E-D1D5-4FFD-9888-231C96E1CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A4B6FF5-15FA-4B4B-8C51-EB4F8ECC143A}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>teki2</t>
   </si>
   <si>
-    <t>ブロック</t>
-  </si>
-  <si>
     <t>Ken2flag == false</t>
   </si>
   <si>
@@ -427,13 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックが壊されてなければ（teki2 == true）通れない。</t>
-    <rPh sb="5" eb="6">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵が倒されてなければ（teki1 == true）通れない。</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -443,6 +433,23 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れる壁</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊れる壁が壊されてなければ（teki2 == true）通れない。</t>
+    <rPh sb="5" eb="6">
+      <t>コワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3552,7 +3559,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3581,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E21D9-C9BC-482D-A067-1E4699D0B14F}">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3856,7 +3863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B74746-1722-4A1F-8D9A-399A53C8193C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4248,10 +4257,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -4269,10 +4278,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -4280,10 +4289,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -4297,7 +4306,7 @@
         <v>61</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -4308,10 +4317,10 @@
         <v>62</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -4319,10 +4328,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.15">
@@ -4330,10 +4339,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4341,10 +4350,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -4352,7 +4361,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4392,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
@@ -4394,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
@@ -4408,43 +4417,43 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
